--- a/src/attributions/attributions_saliency_traj_17.xlsx
+++ b/src/attributions/attributions_saliency_traj_17.xlsx
@@ -1573,1709 +1573,1709 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0004800627939403057</v>
+        <v>0.01406642515212297</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001195455901324749</v>
+        <v>0.00343061238527298</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0887894332408905</v>
+        <v>0.03312746435403824</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006235644221305847</v>
+        <v>0.005429336801171303</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1190902441740036</v>
+        <v>0.0597386434674263</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0004928819835186005</v>
+        <v>0.01028730254620314</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02408676594495773</v>
+        <v>0.02580848522484303</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01955239661037922</v>
+        <v>0.006972978822886944</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05051781609654427</v>
+        <v>0.007973533123731613</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01378762815147638</v>
+        <v>0.04186651855707169</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01721017993986607</v>
+        <v>0.0001690820790827274</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08838269859552383</v>
+        <v>0.04181922227144241</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009966673329472542</v>
+        <v>0.03831622377038002</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09308072924613953</v>
+        <v>0.00609666109085083</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009500183165073395</v>
+        <v>0.01016432512551546</v>
       </c>
       <c r="P3" t="n">
-        <v>0.007147207856178284</v>
+        <v>0.02060693688690662</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02181314677000046</v>
+        <v>0.001674637082032859</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04985390231013298</v>
+        <v>0.05269799381494522</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001088959630578756</v>
+        <v>0.01513845752924681</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03250202536582947</v>
+        <v>0.01581475883722305</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0008475750219076872</v>
+        <v>0.0149571318179369</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02713786438107491</v>
+        <v>0.01675005629658699</v>
       </c>
       <c r="W3" t="n">
-        <v>0.003275567200034857</v>
+        <v>0.008837507106363773</v>
       </c>
       <c r="X3" t="n">
-        <v>0.002485795645043254</v>
+        <v>0.03866780549287796</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.00312728201970458</v>
+        <v>0.01456938032060862</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.02435861341655254</v>
+        <v>0.01937949098646641</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003386074211448431</v>
+        <v>0.004693183116614819</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.003528687171638012</v>
+        <v>0.01292063668370247</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.009097656235098839</v>
+        <v>0.03317683190107346</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.001938261091709137</v>
+        <v>0.009674424305558205</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.01346043217927217</v>
+        <v>0.006793319713324308</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.01270419731736183</v>
+        <v>0.07514737546443939</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.006386808585375547</v>
+        <v>0.0005838721990585327</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.01071367226541042</v>
+        <v>0.02048646472394466</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.02433031052350998</v>
+        <v>0.001893126405775547</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02929246984422207</v>
+        <v>0.03313007578253746</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.005210272502154112</v>
+        <v>0.01514780055731535</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0141997030004859</v>
+        <v>0.0004833564744330943</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.008831162936985493</v>
+        <v>0.01855923235416412</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.006064733024686575</v>
+        <v>0.0380721278488636</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.008977380581200123</v>
+        <v>0.005684696603566408</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.003093576291576028</v>
+        <v>0.007234157994389534</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8.961709681898355e-06</v>
+        <v>0.01152916438877583</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.009049025364220142</v>
+        <v>0.01312004961073399</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.009886422194540501</v>
+        <v>0.006382687482982874</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.002843957860022783</v>
+        <v>0.00648793950676918</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.005884033162146807</v>
+        <v>0.005779638886451721</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.05568185821175575</v>
+        <v>0.01682912558317184</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.009212177246809006</v>
+        <v>0.03247847408056259</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.04411536455154419</v>
+        <v>0.06864179670810699</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.03739393129944801</v>
+        <v>0.003842452308163047</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.007322791963815689</v>
+        <v>0.04471495747566223</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.03517327830195427</v>
+        <v>0.03068393468856812</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.02802222408354282</v>
+        <v>0.04757111892104149</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.0004477167967706919</v>
+        <v>0.02701771631836891</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.006698389537632465</v>
+        <v>0.0005252743139863014</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.01868125982582569</v>
+        <v>0.0172102227807045</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.004678853321820498</v>
+        <v>0.009733455255627632</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.04005037620663643</v>
+        <v>0.01844650506973267</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.01777196675539017</v>
+        <v>0.01145625673234463</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.00542723573744297</v>
+        <v>0.02104604244232178</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.001757606165483594</v>
+        <v>0.01522180438041687</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.005148686468601227</v>
+        <v>0.05561098456382751</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.0007335462141782045</v>
+        <v>0.02858002297580242</v>
       </c>
       <c r="BM3" t="n">
-        <v>9.184936061501503e-06</v>
+        <v>0.02042623981833458</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.02944225445389748</v>
+        <v>0.003962548915296793</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.001997279934585094</v>
+        <v>0.02474894933402538</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.01591803133487701</v>
+        <v>0.04114437475800514</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.02542185224592686</v>
+        <v>0.002368049696087837</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.003003293881192803</v>
+        <v>0.000339999794960022</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.001494498341344297</v>
+        <v>0.02100360207259655</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.003464863635599613</v>
+        <v>0.008063124492764473</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.010106704197824</v>
+        <v>0.01528972387313843</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.005058302544057369</v>
+        <v>0.01905453391373158</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.01526895724236965</v>
+        <v>0.006501424126327038</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.009293688461184502</v>
+        <v>0.01096262875944376</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.04826762899756432</v>
+        <v>0.01195421162992716</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.01927029900252819</v>
+        <v>0.0307301077991724</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.004011796321719885</v>
+        <v>0.01671059057116508</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.009579038247466087</v>
+        <v>0.03804488480091095</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.02800741977989674</v>
+        <v>0.01822278834879398</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0009009161731228232</v>
+        <v>0.003329210914671421</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.01596766524016857</v>
+        <v>0.0009352764463983476</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.01820997707545757</v>
+        <v>0.002241446869447827</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.002435265108942986</v>
+        <v>0.003553661052137613</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.02404453977942467</v>
+        <v>0.002496866043657064</v>
       </c>
       <c r="CI3" t="n">
-        <v>2.316944301128387e-05</v>
+        <v>0.004348646383732557</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.007881722413003445</v>
+        <v>0.00034397526178509</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.00595966400578618</v>
+        <v>0.002558143110945821</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.005386410746723413</v>
+        <v>0.002229115692898631</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.0002550625940784812</v>
+        <v>0.00739135080948472</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.03982606530189514</v>
+        <v>0.01518412493169308</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.0009678923524916172</v>
+        <v>0.006552913226187229</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.008073173463344574</v>
+        <v>0.02426990866661072</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.02147175744175911</v>
+        <v>0.01796363107860088</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.005704789888113737</v>
+        <v>0.001029607839882374</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.003701711073517799</v>
+        <v>0.005906431935727596</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.006445165257900953</v>
+        <v>0.0002393736504018307</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.0164351761341095</v>
+        <v>0.01681811921298504</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.001189842936582863</v>
+        <v>0.003167633432894945</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.01238827034831047</v>
+        <v>0.002895754994824529</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.01872987672686577</v>
+        <v>0.001910661347210407</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.0003201256040483713</v>
+        <v>0.007578564342111349</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.0311952643096447</v>
+        <v>0.009400330483913422</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.00519762746989727</v>
+        <v>0.01278892252594233</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.0145457461476326</v>
+        <v>0.0001202602288685739</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.002256095409393311</v>
+        <v>0.007828451693058014</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.00989061314612627</v>
+        <v>0.001878338633105159</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.0103091923519969</v>
+        <v>0.01895066723227501</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.03758049011230469</v>
+        <v>0.0479082316160202</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.04394707456231117</v>
+        <v>0.02826729416847229</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.02508474513888359</v>
+        <v>0.02911680564284325</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.01580305397510529</v>
+        <v>0.02557661570608616</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.00975421629846096</v>
+        <v>0.0778132751584053</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.0338209755718708</v>
+        <v>0.02536126039922237</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.01481358334422112</v>
+        <v>0.006719470024108887</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.02621303871273994</v>
+        <v>0.01174537185579538</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0006395070813596249</v>
+        <v>0.0176710095256567</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.01549802999943495</v>
+        <v>0.002334451070055366</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.007970329374074936</v>
+        <v>0.02009084448218346</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.005824181716889143</v>
+        <v>0.02229492552578449</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.01705389469861984</v>
+        <v>0.0414297878742218</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.01449825428426266</v>
+        <v>0.01198846101760864</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.0007624290883541107</v>
+        <v>0.04846951737999916</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.01106116734445095</v>
+        <v>0.02276197634637356</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.0003746636211872101</v>
+        <v>0.005350416526198387</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.003942871931940317</v>
+        <v>0.003663221141323447</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.008067992515861988</v>
+        <v>0.002468480262905359</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.005283373408019543</v>
+        <v>0.01405074261128902</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.00485737482085824</v>
+        <v>0.01531064324080944</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.008241293020546436</v>
+        <v>0.02368622832000256</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.0002383082173764706</v>
+        <v>0.007965417578816414</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.002074858173727989</v>
+        <v>0.01135731302201748</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.009090643376111984</v>
+        <v>0.0255621038377285</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.01396066974848509</v>
+        <v>0.002070903778076172</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.002738884650170803</v>
+        <v>0.009353790432214737</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.007496360689401627</v>
+        <v>0.008280150592327118</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.01793025806546211</v>
+        <v>0.003136767074465752</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.006447621155530214</v>
+        <v>0.01637963391840458</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.0195652861148119</v>
+        <v>0.001592555548995733</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.02200939878821373</v>
+        <v>0.04039239883422852</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.006972753908485174</v>
+        <v>0.009155898354947567</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.0007355427369475365</v>
+        <v>0.01395914331078529</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.004073095507919788</v>
+        <v>4.635099321603775e-05</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.003499106038361788</v>
+        <v>0.01918167062103748</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.01271302159875631</v>
+        <v>0.002932690549641848</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.003953223116695881</v>
+        <v>0.002230302430689335</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.005501041188836098</v>
+        <v>0.007514323107898235</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.02353705838322639</v>
+        <v>0.03098803013563156</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.01346656493842602</v>
+        <v>0.01211322750896215</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.01739709265530109</v>
+        <v>0.01184701733291149</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.006141806952655315</v>
+        <v>0.04350437223911285</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.001319947885349393</v>
+        <v>0.005258625838905573</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.827249070629478e-05</v>
+        <v>0.008193046785891056</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.01218564156442881</v>
+        <v>0.0009385385783389211</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.01839431747794151</v>
+        <v>0.001606243080459535</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.001092752791009843</v>
+        <v>0.01535456255078316</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.02329243160784245</v>
+        <v>0.01125826220959425</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.009310455992817879</v>
+        <v>0.005439217202365398</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.008504895493388176</v>
+        <v>0.004999054130166769</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.0001705903559923172</v>
+        <v>0.01043805480003357</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.008385295048356056</v>
+        <v>0.0003346235025674105</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.002135045593604445</v>
+        <v>0.002481526229530573</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.004403175786137581</v>
+        <v>0.01462051644921303</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.005812227260321379</v>
+        <v>0.004974940791726112</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.008267767727375031</v>
+        <v>0.001226845197379589</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.0105251669883728</v>
+        <v>0.006333591882139444</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.008990905247628689</v>
+        <v>0.005561180878430605</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.005844393745064735</v>
+        <v>0.03656941652297974</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.01537495851516724</v>
+        <v>0.0190180167555809</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.03375547751784325</v>
+        <v>0.004362957552075386</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.001757740508764982</v>
+        <v>0.007827410474419594</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.03628451377153397</v>
+        <v>0.01821643114089966</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.004274555947631598</v>
+        <v>0.004467058461159468</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.02942035160958767</v>
+        <v>0.01802184246480465</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.001133548095822334</v>
+        <v>0.0623992346227169</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.005028548650443554</v>
+        <v>0.00935346819460392</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.005190652329474688</v>
+        <v>0.02421723864972591</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.009878610260784626</v>
+        <v>0.005284332670271397</v>
       </c>
       <c r="FX3" t="n">
-        <v>1.718476414680481e-05</v>
+        <v>0.01374551467597485</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.0006779341492801905</v>
+        <v>0.00454266183078289</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.01363677904009819</v>
+        <v>0.005346714053303003</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.006134073249995708</v>
+        <v>0.02389304898679256</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0005040434189140797</v>
+        <v>0.01485740672796965</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.002960579004138708</v>
+        <v>0.009174281731247902</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.01147658564150333</v>
+        <v>0.01531230378895998</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.003263056743890047</v>
+        <v>0.0138694616034627</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.02328610233962536</v>
+        <v>0.04497190192341805</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.004750545602291822</v>
+        <v>0.01555396057665348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0009061431046575308</v>
+        <v>5.95021374465432e-05</v>
       </c>
       <c r="B4" t="n">
-        <v>0.001143832225352526</v>
+        <v>0.0005644230404868722</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003968847915530205</v>
+        <v>3.492676478344947e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0005917641683481634</v>
+        <v>0.0003290019812993705</v>
       </c>
       <c r="E4" t="n">
-        <v>0.005132304970175028</v>
+        <v>0.0001854094734881073</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001196803874336183</v>
+        <v>0.0001115302366088144</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0005916138179600239</v>
+        <v>5.460289685288444e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001978590851649642</v>
+        <v>1.7491835023975e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004104339517652988</v>
+        <v>7.607050065416843e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>2.869463060051203e-05</v>
+        <v>0.0001020668132696301</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0002198461297666654</v>
+        <v>0.0004318583814892918</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004469233099371195</v>
+        <v>1.400992550770752e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0004303405876271427</v>
+        <v>0.0002544833696447313</v>
       </c>
       <c r="N4" t="n">
-        <v>0.003904547076672316</v>
+        <v>0.000198332971194759</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0006280616507865489</v>
+        <v>0.0001768567453837022</v>
       </c>
       <c r="P4" t="n">
-        <v>0.001114713260903955</v>
+        <v>5.712304846383631e-05</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001835397910326719</v>
+        <v>0.0001412971178069711</v>
       </c>
       <c r="R4" t="n">
-        <v>0.003957678563892841</v>
+        <v>2.638590740389191e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0001539699587738141</v>
+        <v>1.184633401862811e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0009322958649136126</v>
+        <v>8.977026300271973e-05</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0007543807732872665</v>
+        <v>2.270221011713147e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>0.00201131496578455</v>
+        <v>5.062887066742405e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0003017336421180516</v>
+        <v>4.689964407589287e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>2.160049916710705e-06</v>
+        <v>2.504169970052317e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.00103244511410594</v>
+        <v>0.0001080749862012453</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.001044246135279536</v>
+        <v>3.597612521843985e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0003144392103422433</v>
+        <v>4.310247459216043e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0002575931430328637</v>
+        <v>4.359679951448925e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0004328556824475527</v>
+        <v>4.643237116397358e-05</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0007029711850918829</v>
+        <v>7.81988819653634e-06</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0002535477105993778</v>
+        <v>3.837205076706596e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0006452101515606046</v>
+        <v>5.187002898310311e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0001813445269363001</v>
+        <v>2.071751441690139e-05</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0003514328273013234</v>
+        <v>7.096472472767346e-06</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.001529635861515999</v>
+        <v>3.613159788073972e-05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.001307040802203119</v>
+        <v>5.797026460641064e-05</v>
       </c>
       <c r="AK4" t="n">
-        <v>4.395813448354602e-05</v>
+        <v>4.210851693642326e-05</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.001944802817888558</v>
+        <v>6.749592284904793e-05</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.0004090789880137891</v>
+        <v>1.20046879601432e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.0002073674113489687</v>
+        <v>3.202028892701492e-05</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.00029051533783786</v>
+        <v>3.775609229705879e-06</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.001670391065999866</v>
+        <v>8.483869896735996e-05</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.0002175918198190629</v>
+        <v>3.188838309142739e-05</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.0001468421396566555</v>
+        <v>7.148489657993196e-06</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.0001968023425433785</v>
+        <v>4.244579758960754e-05</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.001072534825652838</v>
+        <v>9.910567314364016e-05</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.002508393721655011</v>
+        <v>0.0003493562981020659</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.004003846552222967</v>
+        <v>1.063616400642786e-05</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0008735170704312623</v>
+        <v>0.0001448950206395239</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.002010500989854336</v>
+        <v>4.402789636515081e-05</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.003515805583447218</v>
+        <v>1.059844726114534e-05</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.330394297838211e-05</v>
+        <v>4.266181349521503e-05</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.00209817080758512</v>
+        <v>2.498516550986096e-05</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.001598204486072063</v>
+        <v>7.971018931129947e-05</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.07020532595925e-05</v>
+        <v>5.426550706033595e-05</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.0006198048358783126</v>
+        <v>7.996991917025298e-05</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.0008835095213726163</v>
+        <v>8.32036166684702e-05</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.000505206233356148</v>
+        <v>3.081605973420665e-05</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0005607301136478782</v>
+        <v>0.0001996781211346388</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.001536411116831005</v>
+        <v>4.703992453869432e-05</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.357891596853733e-05</v>
+        <v>6.383062282111496e-05</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.0007309761713258922</v>
+        <v>0.0001226569875143468</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.000812386570032686</v>
+        <v>1.608943784958683e-05</v>
       </c>
       <c r="BL4" t="n">
-        <v>3.660748188849539e-05</v>
+        <v>6.29506102995947e-05</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0001393610873492435</v>
+        <v>2.428252446406987e-05</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.002117286436259747</v>
+        <v>2.593066892586648e-05</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.0008247130317613482</v>
+        <v>7.944041863083839e-05</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.0001532312307972461</v>
+        <v>9.402923751622438e-06</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.0002333677257411182</v>
+        <v>2.309436240466312e-06</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.00017724753706716</v>
+        <v>2.824966941261664e-06</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.000208658617339097</v>
+        <v>2.64255086221965e-05</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.0005113984807394445</v>
+        <v>2.535343082854524e-05</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.0002924660802818835</v>
+        <v>4.774959234055132e-05</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.001409226795658469</v>
+        <v>0.0001860674237832427</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.0002221643808297813</v>
+        <v>6.285157269303454e-06</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.0001375011634081602</v>
+        <v>4.819018431589939e-05</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.001593749970197678</v>
+        <v>1.422653440386057e-06</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.0002918019890785217</v>
+        <v>8.054111822275445e-05</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.0001854556321632117</v>
+        <v>3.785793524002656e-05</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.001684964168816805</v>
+        <v>2.806946940836497e-05</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.0016551548615098</v>
+        <v>4.441789496922866e-05</v>
       </c>
       <c r="CD4" t="n">
-        <v>2.507243334548548e-05</v>
+        <v>2.8225844289409e-05</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.001229630666784942</v>
+        <v>0.0001014398148981854</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.0008561031427234411</v>
+        <v>3.702575486386195e-05</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.0001962634269148111</v>
+        <v>2.215341373812407e-05</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.001321712741628289</v>
+        <v>5.77084665565053e-06</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.0002506023156456649</v>
+        <v>2.475152177794371e-05</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.0002347102708881721</v>
+        <v>2.489278995199129e-05</v>
       </c>
       <c r="CK4" t="n">
-        <v>4.284982423996553e-06</v>
+        <v>6.566854608536232e-06</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.0004121075035072863</v>
+        <v>4.60420960735064e-05</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.0003749722382053733</v>
+        <v>5.049696483183652e-05</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.002844282193109393</v>
+        <v>7.158321750466712e-06</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.000564472284168005</v>
+        <v>6.239477079361677e-05</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.001137670013122261</v>
+        <v>6.829000631114468e-05</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.0005645615747198462</v>
+        <v>0.0001096142368623987</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.0003011158551089466</v>
+        <v>4.316132981330156e-05</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.0003453418321441859</v>
+        <v>3.486719288048334e-05</v>
       </c>
       <c r="CT4" t="n">
-        <v>7.012413698248565e-05</v>
+        <v>0.0001572473411215469</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.001248495420441031</v>
+        <v>1.172958764072973e-05</v>
       </c>
       <c r="CV4" t="n">
-        <v>1.490602880949154e-05</v>
+        <v>2.587751441751607e-05</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.001295439433306456</v>
+        <v>8.313258149428293e-05</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.0008764492813497782</v>
+        <v>3.092512270086445e-05</v>
       </c>
       <c r="CY4" t="n">
-        <v>1.314534893026575e-05</v>
+        <v>6.969712558202446e-05</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.001646712422370911</v>
+        <v>3.147498318867292e-06</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.0002605868212413043</v>
+        <v>2.94023884634953e-05</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.0003484842600300908</v>
+        <v>1.746110137901269e-05</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.0002184208278777078</v>
+        <v>7.960807124618441e-08</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.0005882616969756782</v>
+        <v>3.299912350485101e-05</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.0006249570287764072</v>
+        <v>3.932394611183554e-05</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.001739435829222202</v>
+        <v>9.776052320376039e-05</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.002679158002138138</v>
+        <v>3.512847251840867e-05</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.0003763480635825545</v>
+        <v>0.0001385756768286228</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.002121168654412031</v>
+        <v>3.112448393949308e-05</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.0008932204800657928</v>
+        <v>4.080711732967757e-06</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.001453008968383074</v>
+        <v>6.945458153495565e-05</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.0003578098549041897</v>
+        <v>9.438893903279677e-05</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.001082296133972704</v>
+        <v>2.588431198091712e-05</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.0001417638268321753</v>
+        <v>9.29955713218078e-05</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.0007583480910398066</v>
+        <v>6.162605131976306e-05</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.0006956839933991432</v>
+        <v>8.863798939273693e-07</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.001053078565746546</v>
+        <v>8.58980456541758e-06</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.0005255384603515267</v>
+        <v>2.208797377534211e-05</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.001312205451540649</v>
+        <v>7.842845661798492e-05</v>
       </c>
       <c r="DT4" t="n">
-        <v>8.610665099695325e-05</v>
+        <v>8.003203220141586e-06</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.0002402853278908879</v>
+        <v>9.050480912264902e-06</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.000386629777494818</v>
+        <v>4.68136349809356e-05</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.0003004356985911727</v>
+        <v>3.521428880048916e-05</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.0001694246748229489</v>
+        <v>3.159154948662035e-05</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.0007163588888943195</v>
+        <v>0.0001255433890037239</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.0002297960454598069</v>
+        <v>2.005881469813175e-05</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.0002807331038638949</v>
+        <v>6.61625963402912e-05</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.0003297398798167706</v>
+        <v>1.77702368091559e-05</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.0002163579338230193</v>
+        <v>2.46480976784369e-06</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.0003288938896730542</v>
+        <v>4.652453935705125e-05</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.0003323584096506238</v>
+        <v>1.540031189506408e-05</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.0001210194313898683</v>
+        <v>3.155260128551163e-05</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.001888591330498457</v>
+        <v>4.676160097005777e-05</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.0005759151536040008</v>
+        <v>2.388520215390599e-06</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.0001117126666940749</v>
+        <v>2.373777169850655e-05</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.0008110507624223828</v>
+        <v>4.401837213663384e-05</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.001067863311618567</v>
+        <v>2.551108627812937e-05</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.0005933372303843498</v>
+        <v>3.038130489585456e-05</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.0005165772745385766</v>
+        <v>3.878053030348383e-05</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.0004156444338150322</v>
+        <v>7.956773515616078e-06</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.0005178193678148091</v>
+        <v>4.546209311229177e-05</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.0006155713927000761</v>
+        <v>5.49376527487766e-05</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.0007412222330458462</v>
+        <v>8.605196853750385e-06</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.0001656031963648275</v>
+        <v>7.135181658668444e-05</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.001036530709825456</v>
+        <v>3.097944136243314e-05</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.0004868126125074923</v>
+        <v>0.0001646932505536824</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.000205590738914907</v>
+        <v>2.225334810646018e-06</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.0006347969174385071</v>
+        <v>1.605903344170656e-05</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.0003423910238780081</v>
+        <v>1.236806929227896e-05</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.0001096829073503613</v>
+        <v>2.197082176280674e-05</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.001274638460017741</v>
+        <v>8.097590762190521e-05</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.0008719038451090455</v>
+        <v>1.98584621102782e-05</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.0001594550267327577</v>
+        <v>4.759800140163861e-05</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.001217859797179699</v>
+        <v>3.377313987584785e-06</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.0004594168858602643</v>
+        <v>2.535561179684009e-05</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.000279507105005905</v>
+        <v>2.613383549032733e-05</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.000256883620750159</v>
+        <v>3.49733090843074e-06</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.0005553304217755795</v>
+        <v>3.961419133702293e-05</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.00027548021171242</v>
+        <v>7.817288860678673e-06</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.000385525549063459</v>
+        <v>4.374131094664335e-05</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.0007281490252353251</v>
+        <v>4.250609345035627e-05</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.0004943968378938735</v>
+        <v>8.474839705741033e-05</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.001338236499577761</v>
+        <v>1.001506461761892e-05</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.001225957646965981</v>
+        <v>1.108201786337304e-06</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.0003748156595975161</v>
+        <v>4.01408615289256e-05</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.000120837998110801</v>
+        <v>2.091888927679975e-05</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.001171565614640713</v>
+        <v>8.965341839939356e-05</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.0001952556485775858</v>
+        <v>6.459559517679736e-05</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.001344243763014674</v>
+        <v>4.127227657590993e-05</v>
       </c>
       <c r="FR4" t="n">
-        <v>3.151898272335529e-05</v>
+        <v>6.029556971043348e-05</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.0007439225446432829</v>
+        <v>9.866706386674196e-05</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.0005438757361844182</v>
+        <v>0.0001951812300831079</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.000651774404104799</v>
+        <v>1.295507900067605e-05</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.0006916535785421729</v>
+        <v>2.574399150034878e-05</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.0005232070689089596</v>
+        <v>6.191017746459693e-05</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.0004030689597129822</v>
+        <v>5.83019937039353e-05</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.0004390029353089631</v>
+        <v>5.460530519485474e-05</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.0004279255808796734</v>
+        <v>2.458851849951316e-05</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.0008238751324824989</v>
+        <v>5.419295484898612e-05</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.0005422375397756696</v>
+        <v>2.382491584285162e-05</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.0008502270793542266</v>
+        <v>0.0001100122535717674</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.0006584022776223719</v>
+        <v>4.450673441169783e-05</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.0007601212710142136</v>
+        <v>0.000126091341371648</v>
       </c>
       <c r="GF4" t="n">
-        <v>6.645692337770015e-05</v>
+        <v>8.008089935174212e-06</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.0003034749533981085</v>
+        <v>4.026104215881787e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01794360391795635</v>
+        <v>3.64714423994883e-07</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0131092257797718</v>
+        <v>4.214244108879939e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0148953003808856</v>
+        <v>6.933858912816504e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02437513694167137</v>
+        <v>1.611472907825373e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01312845665961504</v>
+        <v>1.894635897770058e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002482506446540356</v>
+        <v>2.58806103374809e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005905558355152607</v>
+        <v>8.503575372742489e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005369308404624462</v>
+        <v>6.79095819577924e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03573758527636528</v>
+        <v>3.189028120686999e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02527308091521263</v>
+        <v>1.364248419122305e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002721111522987485</v>
+        <v>3.867799387080595e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03267528489232063</v>
+        <v>4.468158749659779e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02428785338997841</v>
+        <v>2.020253123191651e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0005773077718913555</v>
+        <v>2.585345282568596e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004197148606181145</v>
+        <v>2.951855458377395e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01167764980345964</v>
+        <v>1.106608578993473e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.004018784966319799</v>
+        <v>7.953962267492898e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04387934133410454</v>
+        <v>4.393998096929863e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001122038462199271</v>
+        <v>1.793987394194119e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>0.004665921442210674</v>
+        <v>8.593217899033334e-06</v>
       </c>
       <c r="U5" t="n">
-        <v>0.005346329882740974</v>
+        <v>2.849376642188872e-06</v>
       </c>
       <c r="V5" t="n">
-        <v>0.007648606784641743</v>
+        <v>1.243416932084074e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0007372744148597121</v>
+        <v>2.487719029886648e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0002371101872995496</v>
+        <v>7.469224328815471e-06</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01648171432316303</v>
+        <v>2.986793788295472e-06</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.003365670563653111</v>
+        <v>5.893161869607866e-08</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.004542491398751736</v>
+        <v>7.104765700205462e-07</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0005189841613173485</v>
+        <v>5.177843831916107e-06</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.006246455945074558</v>
+        <v>6.170156666485127e-06</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.01219342462718487</v>
+        <v>9.568155292072333e-06</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.00908063817769289</v>
+        <v>7.412808372464497e-06</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.007979997433722019</v>
+        <v>1.095018797059311e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.00383205502294004</v>
+        <v>4.171516138740117e-06</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.009930131956934929</v>
+        <v>7.176870894909371e-06</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01190238073468208</v>
+        <v>5.428183840194833e-07</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.009046729654073715</v>
+        <v>1.567879053254728e-06</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.004884871654212475</v>
+        <v>3.296710019640159e-06</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.011355753056705</v>
+        <v>6.24132508164621e-06</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.003591132117435336</v>
+        <v>1.89561660590698e-06</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.009726050309836864</v>
+        <v>2.92416939373652e-06</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.004636290483176708</v>
+        <v>3.15773399961472e-06</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.02258669398725033</v>
+        <v>5.21942820341792e-06</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.0006288990844041109</v>
+        <v>2.524357114452869e-06</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.006509000435471535</v>
+        <v>1.160885858553229e-07</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.002356253797188401</v>
+        <v>2.213756715718773e-06</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.0001518744975328445</v>
+        <v>5.738050731451949e-06</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0173967070877552</v>
+        <v>3.060988819925115e-05</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.02787270769476891</v>
+        <v>8.309290251418133e-07</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.001414356753230095</v>
+        <v>1.964589046110632e-06</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.003383175004273653</v>
+        <v>9.382355528941844e-06</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.03029084950685501</v>
+        <v>7.633290806552395e-06</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.009513609111309052</v>
+        <v>1.036504727380816e-05</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.004204168450087309</v>
+        <v>3.755786110559711e-06</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0177807230502367</v>
+        <v>5.478871571540367e-06</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.006663545966148376</v>
+        <v>9.805050922295777e-07</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.002245535608381033</v>
+        <v>1.168958806374576e-05</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.004628192167729139</v>
+        <v>7.442259175149957e-06</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.007514412980526686</v>
+        <v>5.339841663953848e-06</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.005974588450044394</v>
+        <v>2.705784936551936e-05</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.01310122013092041</v>
+        <v>1.707946466922294e-05</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.006915432401001453</v>
+        <v>8.821770279610064e-06</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.02605690434575081</v>
+        <v>4.97473229188472e-06</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.009501070715487003</v>
+        <v>2.326927642570809e-06</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.005180990789085627</v>
+        <v>7.387156529148342e-06</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.006689471658319235</v>
+        <v>3.743399020095239e-06</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.0153754698112607</v>
+        <v>4.663872914534295e-06</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.003811165690422058</v>
+        <v>3.072834999784391e-07</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.00612426595762372</v>
+        <v>1.447416252631228e-06</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.002507977187633514</v>
+        <v>1.9414110283833e-06</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.004016822203993797</v>
+        <v>4.901234206045046e-06</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.004347228910773993</v>
+        <v>1.787502469596802e-06</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.002958780154585838</v>
+        <v>1.985655671887798e-06</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.01207698136568069</v>
+        <v>2.87034936263808e-06</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.01532505452632904</v>
+        <v>1.602287375135347e-05</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.002377650700509548</v>
+        <v>5.18134902449674e-06</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.01049929857254028</v>
+        <v>3.156890670652501e-06</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.008102723397314548</v>
+        <v>2.63530228039599e-06</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.007037567440420389</v>
+        <v>6.003530415910063e-06</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.004704378545284271</v>
+        <v>5.447305738925934e-06</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.00371834821999073</v>
+        <v>2.049982867902145e-06</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.009471733123064041</v>
+        <v>4.689573813720926e-07</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.006863412447273731</v>
+        <v>2.725014383031521e-07</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.01765367388725281</v>
+        <v>7.63746902521234e-06</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.002739729359745979</v>
+        <v>4.205566597192956e-07</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0003273809561505914</v>
+        <v>2.420018972770777e-06</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.004156255163252354</v>
+        <v>4.766291397118039e-07</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.0006065613124519587</v>
+        <v>3.039528337467345e-06</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.001631408464163542</v>
+        <v>5.482724191097077e-06</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0009721425594761968</v>
+        <v>3.377832058504282e-07</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.0037506187800318</v>
+        <v>1.329261522187153e-06</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.007752400822937489</v>
+        <v>5.563303147937404e-06</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.003922663629055023</v>
+        <v>7.963386451592669e-06</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.001318114809691906</v>
+        <v>1.537576281407382e-06</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.003518880344927311</v>
+        <v>3.711694716912461e-06</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0004931384464725852</v>
+        <v>5.844080533279339e-06</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.003517540404573083</v>
+        <v>3.509113412292209e-06</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.002687387401238084</v>
+        <v>7.507619557145517e-06</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.01560802385210991</v>
+        <v>1.564910417073406e-05</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.009036334231495857</v>
+        <v>1.282324546991731e-06</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.006928733550012112</v>
+        <v>2.099156972690253e-07</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.01800725422799587</v>
+        <v>5.452372988656862e-06</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.002177962101995945</v>
+        <v>1.82391318048758e-06</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.001924461801536381</v>
+        <v>3.000613560288912e-06</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.006620198953896761</v>
+        <v>7.462675739589031e-07</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.001652347156777978</v>
+        <v>4.005466962553328e-06</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.000142037941259332</v>
+        <v>3.670764499474899e-06</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.001163557870313525</v>
+        <v>4.903437798020605e-07</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.005295724142342806</v>
+        <v>1.487768486185814e-06</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.005831233691424131</v>
+        <v>6.061878593754955e-06</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.03230604901909828</v>
+        <v>8.369548595510423e-06</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.02658458240330219</v>
+        <v>8.531176717951894e-06</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.005180422216653824</v>
+        <v>4.672644536185544e-06</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.003393698716536164</v>
+        <v>4.81299139210023e-06</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.02433904632925987</v>
+        <v>1.247072123078397e-05</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.006187503226101398</v>
+        <v>5.081967174191959e-06</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.00587005726993084</v>
+        <v>1.812691152736079e-07</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.002175550442188978</v>
+        <v>2.218930148956133e-06</v>
       </c>
       <c r="DN5" t="n">
-        <v>2.671289257705212e-05</v>
+        <v>1.49080449318717e-07</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.005908377468585968</v>
+        <v>3.802458422796917e-06</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.009776439517736435</v>
+        <v>2.848607891792199e-06</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.007174775935709476</v>
+        <v>1.048607919074129e-05</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.006687653250992298</v>
+        <v>6.404259693226777e-06</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.01141621451824903</v>
+        <v>6.778177066735225e-06</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.002964491955935955</v>
+        <v>2.526797743485076e-06</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.004672660492360592</v>
+        <v>2.309310957571142e-06</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.004219905473291874</v>
+        <v>1.248462126568484e-06</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.002941200509667397</v>
+        <v>1.935338104885886e-06</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.001874905545264482</v>
+        <v>2.572582161519676e-06</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.004826366435736418</v>
+        <v>1.902211010929022e-07</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.0010485565289855</v>
+        <v>9.869573659671005e-06</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.007317465730011463</v>
+        <v>2.205917553510517e-06</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.003684247843921185</v>
+        <v>6.173380825202912e-06</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.002413605805486441</v>
+        <v>6.681274498987477e-06</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.001961606089025736</v>
+        <v>9.563896128383931e-06</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.002681179437786341</v>
+        <v>3.181460897394572e-06</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.01154084410518408</v>
+        <v>1.847175326474826e-06</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.02546326816082001</v>
+        <v>5.433284513856051e-06</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.003484405344352126</v>
+        <v>1.287077338929521e-06</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.001522444654256105</v>
+        <v>5.862798388989177e-06</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.003280672244727612</v>
+        <v>1.181031393571175e-06</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.008419783785939217</v>
+        <v>9.094928827835247e-07</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.0019344761967659</v>
+        <v>9.156424312095623e-06</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.001296328497119248</v>
+        <v>6.287493761192309e-07</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.007001396734267473</v>
+        <v>3.979110942964326e-07</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0006717543583363295</v>
+        <v>1.637351942918031e-06</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.01428745314478874</v>
+        <v>2.535610519771581e-06</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.005369676277041435</v>
+        <v>3.993925474787829e-06</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.003644592128694057</v>
+        <v>4.311905286158435e-06</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.006174554582685232</v>
+        <v>5.871602297702339e-06</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.01715944707393646</v>
+        <v>1.217666249431204e-05</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.003221002174541354</v>
+        <v>8.823841426419676e-07</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.003569850698113441</v>
+        <v>3.690521452881512e-06</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.002980895806103945</v>
+        <v>2.144810196114122e-06</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.007912888191640377</v>
+        <v>8.944076625994057e-07</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.0157404001802206</v>
+        <v>5.933100965194171e-06</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.003115547355264425</v>
+        <v>3.165530415571993e-08</v>
       </c>
       <c r="FA5" t="n">
-        <v>6.470945663750172e-05</v>
+        <v>2.719115400395822e-06</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.004462054930627346</v>
+        <v>1.357632072540582e-06</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.00115893199108541</v>
+        <v>4.502900537772803e-06</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0003191091236658394</v>
+        <v>4.108602297492325e-06</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.001327439909800887</v>
+        <v>1.572169480823504e-06</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.005247453693300486</v>
+        <v>1.313673124059278e-06</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.01014730148017406</v>
+        <v>3.155114427499939e-07</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.007566613610833883</v>
+        <v>5.430260330285819e-07</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.009693172760307789</v>
+        <v>1.743482698657317e-06</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.002223941264674067</v>
+        <v>1.343931853625691e-05</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.005099410191178322</v>
+        <v>9.677722118794918e-06</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.01127076894044876</v>
+        <v>5.077818059362471e-06</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.006970657967031002</v>
+        <v>4.946501576341689e-06</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.008563881739974022</v>
+        <v>1.099860855902079e-05</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.002167430240660906</v>
+        <v>5.455078280647285e-06</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.007805719040334225</v>
+        <v>3.374105745024281e-06</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.01274095196276903</v>
+        <v>1.108205833588727e-05</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.004452866967767477</v>
+        <v>4.482879376155324e-06</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.01009411923587322</v>
+        <v>1.432934368494898e-05</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.0105953011661768</v>
+        <v>8.953546057455242e-06</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.01256520859897137</v>
+        <v>9.78572825260926e-06</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.01164249330759048</v>
+        <v>6.062823558750097e-06</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.01119405869394541</v>
+        <v>2.631009465403622e-06</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.004476391710340977</v>
+        <v>4.466858626983594e-06</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.008895746432244778</v>
+        <v>2.426259015919641e-08</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.009306797757744789</v>
+        <v>5.641939424094744e-06</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.007216514088213444</v>
+        <v>9.668593520473223e-06</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.003749494440853596</v>
+        <v>6.747013685526326e-07</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.0005002038087695837</v>
+        <v>4.686476131610107e-06</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.0001584489364176989</v>
+        <v>1.582426307322748e-06</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.005707389675080776</v>
+        <v>2.359959125897149e-06</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.01375961303710938</v>
+        <v>4.348205038695596e-06</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0002395112533122301</v>
+        <v>3.572118203010177e-06</v>
       </c>
     </row>
     <row r="6">
@@ -3849,571 +3849,571 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0009086765348911285</v>
+        <v>0.01161121018230915</v>
       </c>
       <c r="B7" t="n">
-        <v>0.001991499681025743</v>
+        <v>0.04996137693524361</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006814237684011459</v>
+        <v>0.004602121654897928</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002329881303012371</v>
+        <v>0.01871274597942829</v>
       </c>
       <c r="E7" t="n">
-        <v>0.006799157243221998</v>
+        <v>0.007353690452873707</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0001013806322589517</v>
+        <v>0.01279010158032179</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0002380791702307761</v>
+        <v>0.000998207600787282</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001745730638504028</v>
+        <v>0.002090171212330461</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004691720940172672</v>
+        <v>0.002396916737779975</v>
       </c>
       <c r="J7" t="n">
-        <v>7.813506090315059e-05</v>
+        <v>0.0150246936827898</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0005749521660618484</v>
+        <v>0.03098365664482117</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007024676539003849</v>
+        <v>0.0006380101549439132</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002279358915984631</v>
+        <v>0.01892995461821556</v>
       </c>
       <c r="N7" t="n">
-        <v>0.005289528518915176</v>
+        <v>0.01283747982233763</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0005874086054973304</v>
+        <v>0.019154267385602</v>
       </c>
       <c r="P7" t="n">
-        <v>0.000279001978924498</v>
+        <v>0.002260340843349695</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.00236715585924685</v>
+        <v>0.001538039650768042</v>
       </c>
       <c r="R7" t="n">
-        <v>0.005356809124350548</v>
+        <v>0.004503856413066387</v>
       </c>
       <c r="S7" t="n">
-        <v>8.362694643437862e-06</v>
+        <v>0.0008185164770111442</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001619287999346852</v>
+        <v>0.004650778137147427</v>
       </c>
       <c r="U7" t="n">
-        <v>1.755190896801651e-05</v>
+        <v>0.003158505307510495</v>
       </c>
       <c r="V7" t="n">
-        <v>0.001338674686849117</v>
+        <v>0.006978957913815975</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0001079355424735695</v>
+        <v>0.005503055173903704</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0005636131390929222</v>
+        <v>0.003413858823478222</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0008807854610495269</v>
+        <v>0.005524854175746441</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0003872939851135015</v>
+        <v>0.002823147224262357</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0002350436989217997</v>
+        <v>0.004707794636487961</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.362717926502228e-05</v>
+        <v>0.00155320018529892</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0002068476169370115</v>
+        <v>0.009246706962585449</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.000564612215384841</v>
+        <v>0.001582579337991774</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.000727943261153996</v>
+        <v>0.001115871244110167</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.030208896845579e-05</v>
+        <v>0.004690067376941442</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.00104254821781069</v>
+        <v>0.0001673018559813499</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0003118156455457211</v>
+        <v>0.001157126040197909</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.001155677484348416</v>
+        <v>0.0009389698971062899</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.001927785109728575</v>
+        <v>0.001711264485493302</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.0001976515050046146</v>
+        <v>0.004308987408876419</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.001650307094678283</v>
+        <v>0.005047379992902279</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.0007764979964122176</v>
+        <v>0.001003169803880155</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0006226791883818805</v>
+        <v>0.002248701639473438</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0004725357284769416</v>
+        <v>0.004084438551217318</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.001147463568486273</v>
+        <v>0.005848766304552555</v>
       </c>
       <c r="AQ7" t="n">
-        <v>4.322707536630332e-05</v>
+        <v>0.000192031788174063</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0007369073573499918</v>
+        <v>0.0005876008654013276</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.0001076065163942985</v>
+        <v>0.003304399782791734</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.001086732256226242</v>
+        <v>0.0004964619292877614</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.001910159946419299</v>
+        <v>0.03341881558299065</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.004595457576215267</v>
+        <v>0.000884064647834748</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.0007945832330733538</v>
+        <v>0.003423321060836315</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.001736417878419161</v>
+        <v>0.003440529108047485</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.003115159925073385</v>
+        <v>0.001506834872998297</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.0008276500157080591</v>
+        <v>0.001309146406129003</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.001288840430788696</v>
+        <v>0.00140665820799768</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.001240177312865853</v>
+        <v>0.005804335698485374</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.0004450388951227069</v>
+        <v>0.005144141614437103</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.000333816948113963</v>
+        <v>0.008338067680597305</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.001655557658523321</v>
+        <v>0.007273061666637659</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.0008972600917331874</v>
+        <v>0.002167194848880172</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.001779318903572857</v>
+        <v>0.01273408066481352</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.0009959600865840912</v>
+        <v>0.007250393275171518</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.0008226893842220306</v>
+        <v>0.003158980282023549</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.0007472650613635778</v>
+        <v>0.004153651650995016</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.001151930075138807</v>
+        <v>0.0006503391778096557</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.0002403642574790865</v>
+        <v>0.003567385254427791</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0006525442586280406</v>
+        <v>0.004722492303699255</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.001902317861095071</v>
+        <v>0.00164468155708164</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.0005321248318068683</v>
+        <v>0.006718330550938845</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0004527690471149981</v>
+        <v>0.003650496248155832</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.0001697868865448982</v>
+        <v>0.003484690329059958</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.001165511319413781</v>
+        <v>0.003721647197380662</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.001590259606018662</v>
+        <v>0.0003872410743497312</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.0007537229685112834</v>
+        <v>0.003647868055850267</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.0004342778702266514</v>
+        <v>0.0001211814087582752</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.0006690501468256116</v>
+        <v>0.01547759585082531</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.00143606576602906</v>
+        <v>0.003116034436970949</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.0004473923181649297</v>
+        <v>0.004515847656875849</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.002529500517994165</v>
+        <v>0.003944436088204384</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.000679476885125041</v>
+        <v>0.007623751647770405</v>
       </c>
       <c r="CA7" t="n">
-        <v>3.670719524961896e-05</v>
+        <v>0.001596835092641413</v>
       </c>
       <c r="CB7" t="n">
-        <v>8.758812327869236e-05</v>
+        <v>0.0007627077866345644</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.001421715947799385</v>
+        <v>0.004295964259654284</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.0001921907241921872</v>
+        <v>0.003018047427758574</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.001067962381057441</v>
+        <v>0.00835881382226944</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.001338726840913296</v>
+        <v>0.003167048562318087</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.0002676863805390894</v>
+        <v>0.001117721549235284</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.001351530314423144</v>
+        <v>0.001834821072407067</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.000463905482320115</v>
+        <v>0.003788364119827747</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.000197213317733258</v>
+        <v>0.001326210796833038</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.0002583536552265286</v>
+        <v>0.0004226708551868796</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.0006454112008213997</v>
+        <v>0.001594136352650821</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.0005669681704603136</v>
+        <v>0.003347980324178934</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.002670994959771633</v>
+        <v>0.0001658957917243242</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.0004537464119493961</v>
+        <v>0.004790054634213448</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.0002150315267499536</v>
+        <v>0.006646744441241026</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.0001926292898133397</v>
+        <v>0.004083591513335705</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.0003513034316711128</v>
+        <v>0.004664166830480099</v>
       </c>
       <c r="CS7" t="n">
-        <v>3.348442260175943e-05</v>
+        <v>0.003388748271390796</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.0002059411926893517</v>
+        <v>0.004130909219384193</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.001510513480752707</v>
+        <v>0.001517609460279346</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.0002752252912614495</v>
+        <v>0.002475100103765726</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.001069527468644083</v>
+        <v>0.006569864228367805</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.001254834118299186</v>
+        <v>0.002992428373545408</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.0002532018115743995</v>
+        <v>0.003544334089383483</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.001744529930874705</v>
+        <v>0.001957102678716183</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.0004652242350857705</v>
+        <v>0.004496348556131124</v>
       </c>
       <c r="DB7" t="n">
-        <v>3.081481554545462e-05</v>
+        <v>0.001695811515673995</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.000534548016730696</v>
+        <v>0.0006260422524064779</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.000818967295344919</v>
+        <v>0.001053637126460671</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.0006014715181663632</v>
+        <v>0.005704057868570089</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.00172109086997807</v>
+        <v>0.00283476896584034</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.001987742027267814</v>
+        <v>0.002074589719995856</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.001450252835638821</v>
+        <v>0.008092693984508514</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.0007194163044914603</v>
+        <v>0.006417172029614449</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.0001163628185167909</v>
+        <v>0.0006837413529865444</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.001451789401471615</v>
+        <v>0.002522854600101709</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.001212429371662438</v>
+        <v>0.000823465408757329</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.001230527646839619</v>
+        <v>0.0007959709037095308</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.0003133352438453585</v>
+        <v>0.005083735100924969</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.0007255251985043287</v>
+        <v>0.001819520373828709</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0002853329933714122</v>
+        <v>0.004291539080440998</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.001136525068432093</v>
+        <v>0.0003304334240965545</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.0002641918836161494</v>
+        <v>0.001092620310373604</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0009894105605781078</v>
+        <v>0.00675984937697649</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.0004043522058054805</v>
+        <v>0.000661770231090486</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.0008300625486299396</v>
+        <v>0.001220718142576516</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.000321963569149375</v>
+        <v>0.002390509704127908</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.0003014982212334871</v>
+        <v>0.002683232538402081</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0007971900631673634</v>
+        <v>0.0001572366163600236</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.0006823067087680101</v>
+        <v>0.008515625260770321</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.0001856342423707247</v>
+        <v>0.002581855282187462</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0006916872807778418</v>
+        <v>0.005511761177331209</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.0004085107066202909</v>
+        <v>0.0006500793970189989</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.0001602353004273027</v>
+        <v>0.0004838371824007481</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.0009743981063365936</v>
+        <v>0.0009843312436714768</v>
       </c>
       <c r="EE7" t="n">
-        <v>1.606997102499008e-06</v>
+        <v>0.003146046306937933</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.0002966361935250461</v>
+        <v>0.0001012731809169054</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.0007762566092424095</v>
+        <v>0.004250977654010057</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.001316013862378895</v>
+        <v>0.0001340199378319085</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.0005927250604145229</v>
+        <v>0.0001684500020928681</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.001224011182785034</v>
+        <v>0.0002392923342995346</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.001840457320213318</v>
+        <v>0.002289786003530025</v>
       </c>
       <c r="EL7" t="n">
-        <v>2.338054036954418e-05</v>
+        <v>0.002501562004908919</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.0007502216612920165</v>
+        <v>0.0009444323368370533</v>
       </c>
       <c r="EN7" t="n">
-        <v>7.247839675983414e-05</v>
+        <v>7.755344267934561e-05</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.0005561777506954968</v>
+        <v>0.003265243489295244</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.0006406869506463408</v>
+        <v>0.007154325488954782</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.0005617611459456384</v>
+        <v>0.001753302058205009</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.0003047990903723985</v>
+        <v>0.004199613817036152</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.0008949115290306509</v>
+        <v>0.005253963638097048</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.0002872073673643172</v>
+        <v>0.01271477807313204</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.0007255881209857762</v>
+        <v>0.003347849473357201</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.0001846836239565164</v>
+        <v>0.006112020928412676</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.0008842235547490418</v>
+        <v>0.001202260260470212</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.000362240883987397</v>
+        <v>0.001892006723210216</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.001056406530551612</v>
+        <v>0.006931561511009932</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.001260087359696627</v>
+        <v>0.0007583671831525862</v>
       </c>
       <c r="FA7" t="n">
-        <v>1.238403274328448e-05</v>
+        <v>0.002376982709392905</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.001207564608193934</v>
+        <v>0.001539261313155293</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.0002219376037828624</v>
+        <v>0.004798147827386856</v>
       </c>
       <c r="FD7" t="n">
-        <v>9.516255522612482e-05</v>
+        <v>0.002077148761600256</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.0006261039525270462</v>
+        <v>0.0006405276944860816</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.0009601762285456061</v>
+        <v>0.002029714873060584</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.0005968349287286401</v>
+        <v>0.001429219148121774</v>
       </c>
       <c r="FH7" t="n">
-        <v>7.213192293420434e-05</v>
+        <v>0.002947454806417227</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.0004230067133903503</v>
+        <v>0.002280612476170063</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.0004084195825271308</v>
+        <v>0.004997802432626486</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.0009677718626335263</v>
+        <v>0.001571888453327119</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.0007653061766177416</v>
+        <v>0.001765840221196413</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.0001570323074702173</v>
+        <v>0.001612978288903832</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.0003047155623789877</v>
+        <v>0.004069521557539701</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.001079025445505977</v>
+        <v>0.006616830825805664</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.0002293437719345093</v>
+        <v>0.003251183778047562</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.00256605283357203</v>
+        <v>0.005236636381596327</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.0005671840044669807</v>
+        <v>0.003012689528986812</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.001048972015269101</v>
+        <v>0.004063725005835295</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.000365535554010421</v>
+        <v>0.01417955942451954</v>
       </c>
       <c r="FU7" t="n">
-        <v>9.077678259927779e-05</v>
+        <v>0.004688437562435865</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.0008548304904252291</v>
+        <v>0.0006662225350737572</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.0004377186123747379</v>
+        <v>0.002518803346902132</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.000118399882921949</v>
+        <v>0.00278389360755682</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.0001799433230189607</v>
+        <v>0.005505022592842579</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.0004619423125404865</v>
+        <v>0.003372046397998929</v>
       </c>
       <c r="GA7" t="n">
-        <v>4.685098247136921e-05</v>
+        <v>0.003677301341667771</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.0004641310661099851</v>
+        <v>0.001925599295645952</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.0009413948282599449</v>
+        <v>0.004976941738277674</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.001340110553428531</v>
+        <v>0.002801233669742942</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0006599323241971433</v>
+        <v>0.01060112379491329</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.001142433728091419</v>
+        <v>0.0001824531937018037</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.0002515378000680357</v>
+        <v>0.001842366298660636</v>
       </c>
     </row>
     <row r="8">
@@ -4987,1140 +4987,1140 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.702206074900459e-06</v>
+        <v>0.0004258544649928808</v>
       </c>
       <c r="B9" t="n">
-        <v>1.139212963607861e-05</v>
+        <v>0.00151656090747565</v>
       </c>
       <c r="C9" t="n">
-        <v>1.623705793463159e-05</v>
+        <v>0.0001469698618166149</v>
       </c>
       <c r="D9" t="n">
-        <v>4.226882992952596e-06</v>
+        <v>0.0006376969395205379</v>
       </c>
       <c r="E9" t="n">
-        <v>7.353984074143227e-06</v>
+        <v>0.0004557188658509403</v>
       </c>
       <c r="F9" t="n">
-        <v>2.922766725532711e-05</v>
+        <v>0.0005719829350709915</v>
       </c>
       <c r="G9" t="n">
-        <v>3.456187641859287e-06</v>
+        <v>0.0002866685972549021</v>
       </c>
       <c r="H9" t="n">
-        <v>5.357484042178839e-06</v>
+        <v>0.0001106249910662882</v>
       </c>
       <c r="I9" t="n">
-        <v>3.451744487392716e-05</v>
+        <v>0.0001928987476276234</v>
       </c>
       <c r="J9" t="n">
-        <v>1.433341549272882e-05</v>
+        <v>0.0003787971800193191</v>
       </c>
       <c r="K9" t="n">
-        <v>1.009063726087334e-05</v>
+        <v>0.001006391132250428</v>
       </c>
       <c r="L9" t="n">
-        <v>3.395949170226231e-05</v>
+        <v>0.0001472193980589509</v>
       </c>
       <c r="M9" t="n">
-        <v>5.091028015158372e-06</v>
+        <v>0.0008499374380335212</v>
       </c>
       <c r="N9" t="n">
-        <v>1.315503595833434e-06</v>
+        <v>0.0006197098991833627</v>
       </c>
       <c r="O9" t="n">
-        <v>1.000932934402954e-05</v>
+        <v>0.0007283980958163738</v>
       </c>
       <c r="P9" t="n">
-        <v>9.718460205476731e-06</v>
+        <v>0.0004115935298614204</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.588383257621899e-06</v>
+        <v>0.0004190234176348895</v>
       </c>
       <c r="R9" t="n">
-        <v>2.806802876875736e-05</v>
+        <v>0.0001059106798493303</v>
       </c>
       <c r="S9" t="n">
-        <v>5.103726834931877e-06</v>
+        <v>4.704211460193619e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>2.251685145893134e-06</v>
+        <v>0.0003005140752065927</v>
       </c>
       <c r="U9" t="n">
-        <v>4.237314897181932e-06</v>
+        <v>5.751228673034348e-05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.211524795508012e-05</v>
+        <v>0.0001272555236937478</v>
       </c>
       <c r="W9" t="n">
-        <v>3.949497568100924e-06</v>
+        <v>6.859382119728252e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>4.855522547586588e-06</v>
+        <v>0.0002080661506624892</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.319583316217177e-05</v>
+        <v>0.0001052348525263369</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.084091647702735e-06</v>
+        <v>3.311526597826742e-06</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.369299510173732e-06</v>
+        <v>8.96525671123527e-05</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.544237875350518e-06</v>
+        <v>6.723439582856372e-05</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.230513498740038e-05</v>
+        <v>0.0002924934378825128</v>
       </c>
       <c r="AD9" t="n">
-        <v>4.596203325490933e-06</v>
+        <v>0.0002005381393246353</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.486708222539164e-06</v>
+        <v>0.0004280424909666181</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.359819862045697e-06</v>
+        <v>0.0001915619650389999</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.685718406311935e-06</v>
+        <v>2.054531250905711e-05</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.566938954056241e-05</v>
+        <v>0.0002120804565493017</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.564165571238846e-06</v>
+        <v>3.299523086752743e-06</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.240179573069327e-07</v>
+        <v>0.0001155326317530125</v>
       </c>
       <c r="AK9" t="n">
-        <v>9.003201739687938e-07</v>
+        <v>0.0002290838165208697</v>
       </c>
       <c r="AL9" t="n">
-        <v>5.282034180709161e-06</v>
+        <v>0.0002561921428423375</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.641537776071345e-06</v>
+        <v>1.836754199757706e-05</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.261602392332861e-06</v>
+        <v>2.206641511293128e-06</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.269263859489001e-06</v>
+        <v>6.720482633681968e-05</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.712449557089712e-05</v>
+        <v>0.0001761274470482022</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4.402858849061886e-06</v>
+        <v>0.0001594347559148446</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.642903720901813e-06</v>
+        <v>0.0001027247999445535</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.431809884408722e-06</v>
+        <v>7.844497304176912e-05</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.615239671082236e-05</v>
+        <v>0.0001905081735458225</v>
       </c>
       <c r="AU9" t="n">
-        <v>4.513753083301708e-06</v>
+        <v>0.001267263200134039</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.671735455805901e-05</v>
+        <v>6.630728603340685e-05</v>
       </c>
       <c r="AW9" t="n">
-        <v>9.228337148670107e-06</v>
+        <v>7.959135837154463e-05</v>
       </c>
       <c r="AX9" t="n">
-        <v>9.149244760919828e-06</v>
+        <v>0.0001747385831549764</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.046085344569292e-05</v>
+        <v>0.0001660908164922148</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.605077522981446e-05</v>
+        <v>0.0003184124652761966</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.470367351430468e-05</v>
+        <v>2.548546035541221e-05</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.683906702965032e-05</v>
+        <v>4.193583663436584e-05</v>
       </c>
       <c r="BC9" t="n">
-        <v>5.608816081803525e-06</v>
+        <v>0.0001834799768403172</v>
       </c>
       <c r="BD9" t="n">
-        <v>8.825307304505259e-06</v>
+        <v>0.0002309472329216078</v>
       </c>
       <c r="BE9" t="n">
-        <v>2.640588263602694e-06</v>
+        <v>0.0002095178788295016</v>
       </c>
       <c r="BF9" t="n">
-        <v>5.012085239286534e-06</v>
+        <v>7.072414155118167e-05</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.018855255097151e-05</v>
+        <v>0.000608104863204062</v>
       </c>
       <c r="BH9" t="n">
-        <v>9.390955710841808e-06</v>
+        <v>0.000253130798228085</v>
       </c>
       <c r="BI9" t="n">
-        <v>5.953024356131209e-06</v>
+        <v>0.0001190305920317769</v>
       </c>
       <c r="BJ9" t="n">
-        <v>2.077381213894114e-05</v>
+        <v>0.0003154552832711488</v>
       </c>
       <c r="BK9" t="n">
-        <v>8.977117431641091e-06</v>
+        <v>0.0002028158487519249</v>
       </c>
       <c r="BL9" t="n">
-        <v>5.710205186915118e-06</v>
+        <v>0.0001351422106381506</v>
       </c>
       <c r="BM9" t="n">
-        <v>5.933031388849486e-06</v>
+        <v>0.0002576452388893813</v>
       </c>
       <c r="BN9" t="n">
-        <v>1.943984716490377e-05</v>
+        <v>6.344454595819116e-05</v>
       </c>
       <c r="BO9" t="n">
-        <v>3.787416744671646e-06</v>
+        <v>0.000305521214613691</v>
       </c>
       <c r="BP9" t="n">
-        <v>3.937956535082776e-06</v>
+        <v>0.0002780763024929911</v>
       </c>
       <c r="BQ9" t="n">
-        <v>2.914977812906727e-06</v>
+        <v>5.254423740552738e-07</v>
       </c>
       <c r="BR9" t="n">
-        <v>7.396665751002729e-06</v>
+        <v>0.0002243283379357308</v>
       </c>
       <c r="BS9" t="n">
-        <v>7.327588491534698e-07</v>
+        <v>1.394033279211726e-05</v>
       </c>
       <c r="BT9" t="n">
-        <v>3.055246907024411e-06</v>
+        <v>6.531327380798757e-05</v>
       </c>
       <c r="BU9" t="n">
-        <v>4.461904609343037e-06</v>
+        <v>7.51282277633436e-05</v>
       </c>
       <c r="BV9" t="n">
-        <v>9.681366464064922e-06</v>
+        <v>0.000516423606313765</v>
       </c>
       <c r="BW9" t="n">
-        <v>2.711445858949446e-07</v>
+        <v>9.01035382412374e-05</v>
       </c>
       <c r="BX9" t="n">
-        <v>3.61802722181892e-06</v>
+        <v>0.0001610086765140295</v>
       </c>
       <c r="BY9" t="n">
-        <v>1.545418126625009e-05</v>
+        <v>8.950541814556345e-05</v>
       </c>
       <c r="BZ9" t="n">
-        <v>6.851964371890062e-06</v>
+        <v>0.000245898001594469</v>
       </c>
       <c r="CA9" t="n">
-        <v>3.495611281323363e-06</v>
+        <v>6.626738468185067e-05</v>
       </c>
       <c r="CB9" t="n">
-        <v>1.531356974737719e-05</v>
+        <v>0.0001050140708684921</v>
       </c>
       <c r="CC9" t="n">
-        <v>9.796935046324506e-06</v>
+        <v>4.642669955501333e-05</v>
       </c>
       <c r="CD9" t="n">
-        <v>3.264691940785269e-06</v>
+        <v>5.769378185505047e-05</v>
       </c>
       <c r="CE9" t="n">
-        <v>9.35655043576844e-06</v>
+        <v>0.0003122377092950046</v>
       </c>
       <c r="CF9" t="n">
-        <v>2.334185410290956e-06</v>
+        <v>6.858172855572775e-05</v>
       </c>
       <c r="CG9" t="n">
-        <v>6.023972218827112e-06</v>
+        <v>0.0001239362318301573</v>
       </c>
       <c r="CH9" t="n">
-        <v>4.193785571260378e-06</v>
+        <v>4.219688707962632e-05</v>
       </c>
       <c r="CI9" t="n">
-        <v>2.919030748671503e-06</v>
+        <v>9.659393253969029e-05</v>
       </c>
       <c r="CJ9" t="n">
-        <v>3.052934289371478e-06</v>
+        <v>0.0001139724627137184</v>
       </c>
       <c r="CK9" t="n">
-        <v>6.681081003989675e-07</v>
+        <v>1.847951716626994e-05</v>
       </c>
       <c r="CL9" t="n">
-        <v>1.71425426742644e-06</v>
+        <v>5.186738417251036e-05</v>
       </c>
       <c r="CM9" t="n">
-        <v>6.536724868055899e-06</v>
+        <v>0.0002669363166205585</v>
       </c>
       <c r="CN9" t="n">
-        <v>5.926829544478096e-06</v>
+        <v>0.0002167769416701049</v>
       </c>
       <c r="CO9" t="n">
-        <v>3.463394932623487e-06</v>
+        <v>0.0001781019527697936</v>
       </c>
       <c r="CP9" t="n">
-        <v>7.572895810881164e-06</v>
+        <v>0.0001922932715388015</v>
       </c>
       <c r="CQ9" t="n">
-        <v>1.09259726741584e-05</v>
+        <v>0.0001911844010464847</v>
       </c>
       <c r="CR9" t="n">
-        <v>3.076131861234899e-06</v>
+        <v>0.0003080300521105528</v>
       </c>
       <c r="CS9" t="n">
-        <v>4.342723514128011e-06</v>
+        <v>1.254920243809465e-05</v>
       </c>
       <c r="CT9" t="n">
-        <v>5.248552042758092e-06</v>
+        <v>9.080316522158682e-05</v>
       </c>
       <c r="CU9" t="n">
-        <v>1.191560295410454e-05</v>
+        <v>3.731203469214961e-05</v>
       </c>
       <c r="CV9" t="n">
-        <v>4.912386430078186e-06</v>
+        <v>4.502571755438112e-05</v>
       </c>
       <c r="CW9" t="n">
-        <v>8.281328518933151e-06</v>
+        <v>0.0002343773230677471</v>
       </c>
       <c r="CX9" t="n">
-        <v>1.992814304685453e-06</v>
+        <v>6.40864236629568e-05</v>
       </c>
       <c r="CY9" t="n">
-        <v>4.079784048371948e-06</v>
+        <v>0.0001964702532859519</v>
       </c>
       <c r="CZ9" t="n">
-        <v>5.053079348726897e-06</v>
+        <v>2.221866270701867e-05</v>
       </c>
       <c r="DA9" t="n">
-        <v>5.806544777442468e-06</v>
+        <v>0.0001321892341366038</v>
       </c>
       <c r="DB9" t="n">
-        <v>1.963106797120417e-06</v>
+        <v>0.0001319208386121318</v>
       </c>
       <c r="DC9" t="n">
-        <v>6.056095571693731e-07</v>
+        <v>5.237707955529913e-05</v>
       </c>
       <c r="DD9" t="n">
-        <v>4.487014848564286e-06</v>
+        <v>3.282211037003435e-05</v>
       </c>
       <c r="DE9" t="n">
-        <v>3.899441253452096e-06</v>
+        <v>0.0001035835957736708</v>
       </c>
       <c r="DF9" t="n">
-        <v>2.191456223954447e-05</v>
+        <v>0.0004458418115973473</v>
       </c>
       <c r="DG9" t="n">
-        <v>3.019796895387117e-05</v>
+        <v>9.180314373224974e-05</v>
       </c>
       <c r="DH9" t="n">
-        <v>9.193396181217395e-06</v>
+        <v>6.596879393327981e-05</v>
       </c>
       <c r="DI9" t="n">
-        <v>2.45223673118744e-05</v>
+        <v>0.0004752922977786511</v>
       </c>
       <c r="DJ9" t="n">
-        <v>2.783006857498549e-05</v>
+        <v>4.055798490298912e-05</v>
       </c>
       <c r="DK9" t="n">
-        <v>2.211459104728419e-05</v>
+        <v>0.000373650633264333</v>
       </c>
       <c r="DL9" t="n">
-        <v>3.804228072112892e-06</v>
+        <v>7.095831824699417e-05</v>
       </c>
       <c r="DM9" t="n">
-        <v>5.750071522925282e-06</v>
+        <v>0.0001649330952204764</v>
       </c>
       <c r="DN9" t="n">
-        <v>4.988251021131873e-06</v>
+        <v>0.0002371634473092854</v>
       </c>
       <c r="DO9" t="n">
-        <v>3.342969876030111e-06</v>
+        <v>0.0001952016173163429</v>
       </c>
       <c r="DP9" t="n">
-        <v>1.241170957655413e-05</v>
+        <v>0.0001233010989381</v>
       </c>
       <c r="DQ9" t="n">
-        <v>2.430501808703411e-06</v>
+        <v>0.000264049245743081</v>
       </c>
       <c r="DR9" t="n">
-        <v>6.566696811205475e-06</v>
+        <v>0.0001038033733493648</v>
       </c>
       <c r="DS9" t="n">
-        <v>3.075798304053023e-06</v>
+        <v>0.0001515752519480884</v>
       </c>
       <c r="DT9" t="n">
-        <v>3.924023076251615e-06</v>
+        <v>7.03932746546343e-05</v>
       </c>
       <c r="DU9" t="n">
-        <v>1.649459250074869e-06</v>
+        <v>6.141026096884161e-05</v>
       </c>
       <c r="DV9" t="n">
-        <v>2.186592610087246e-06</v>
+        <v>9.138627501670271e-05</v>
       </c>
       <c r="DW9" t="n">
-        <v>4.957696091878461e-06</v>
+        <v>3.571778506739065e-05</v>
       </c>
       <c r="DX9" t="n">
-        <v>9.101653404286481e-07</v>
+        <v>8.501021511619911e-05</v>
       </c>
       <c r="DY9" t="n">
-        <v>1.605209263288998e-06</v>
+        <v>0.0002401776582701132</v>
       </c>
       <c r="DZ9" t="n">
-        <v>4.246152002451709e-06</v>
+        <v>7.162777183111757e-05</v>
       </c>
       <c r="EA9" t="n">
-        <v>1.368494758935412e-05</v>
+        <v>0.0001696607650956139</v>
       </c>
       <c r="EB9" t="n">
-        <v>7.228220056276768e-06</v>
+        <v>0.0001003002325887792</v>
       </c>
       <c r="EC9" t="n">
-        <v>6.599743301194394e-06</v>
+        <v>2.376547490712255e-05</v>
       </c>
       <c r="ED9" t="n">
-        <v>1.748703198245494e-06</v>
+        <v>0.0001832199923228472</v>
       </c>
       <c r="EE9" t="n">
-        <v>8.243177944677882e-06</v>
+        <v>7.361453754128888e-05</v>
       </c>
       <c r="EF9" t="n">
-        <v>4.891167918685824e-06</v>
+        <v>0.0001288801722694188</v>
       </c>
       <c r="EG9" t="n">
-        <v>1.687063922872767e-05</v>
+        <v>1.379499735776335e-05</v>
       </c>
       <c r="EH9" t="n">
-        <v>4.374559921416221e-06</v>
+        <v>2.935959855676629e-05</v>
       </c>
       <c r="EI9" t="n">
-        <v>6.376371857186314e-07</v>
+        <v>0.0001352900872007012</v>
       </c>
       <c r="EJ9" t="n">
-        <v>1.564632384543074e-06</v>
+        <v>3.561499033821747e-05</v>
       </c>
       <c r="EK9" t="n">
-        <v>1.196646280732239e-05</v>
+        <v>6.829289486631751e-05</v>
       </c>
       <c r="EL9" t="n">
-        <v>1.181113361781172e-06</v>
+        <v>0.0001666335010668263</v>
       </c>
       <c r="EM9" t="n">
-        <v>3.151551709379419e-06</v>
+        <v>2.022420812863857e-05</v>
       </c>
       <c r="EN9" t="n">
-        <v>5.810326001665089e-06</v>
+        <v>3.118879249086604e-05</v>
       </c>
       <c r="EO9" t="n">
-        <v>4.263883511157474e-06</v>
+        <v>0.0002013749035540968</v>
       </c>
       <c r="EP9" t="n">
-        <v>1.324831646343227e-05</v>
+        <v>0.0001482191728428006</v>
       </c>
       <c r="EQ9" t="n">
-        <v>4.155296551289211e-07</v>
+        <v>3.272022149758413e-05</v>
       </c>
       <c r="ER9" t="n">
-        <v>3.642344836407574e-06</v>
+        <v>0.0001342292380286381</v>
       </c>
       <c r="ES9" t="n">
-        <v>4.757060651172651e-06</v>
+        <v>3.274669870734215e-05</v>
       </c>
       <c r="ET9" t="n">
-        <v>3.341208412166452e-06</v>
+        <v>0.0003629488637670875</v>
       </c>
       <c r="EU9" t="n">
-        <v>4.502734554989729e-06</v>
+        <v>0.0001873469154816121</v>
       </c>
       <c r="EV9" t="n">
-        <v>4.303993591747712e-06</v>
+        <v>0.000241546455072239</v>
       </c>
       <c r="EW9" t="n">
-        <v>2.926503157141269e-06</v>
+        <v>2.881507862184662e-05</v>
       </c>
       <c r="EX9" t="n">
-        <v>5.913253971812082e-06</v>
+        <v>4.697895565186627e-05</v>
       </c>
       <c r="EY9" t="n">
-        <v>8.231023457483388e-06</v>
+        <v>0.000220458023250103</v>
       </c>
       <c r="EZ9" t="n">
-        <v>2.332234089408303e-06</v>
+        <v>3.652840405266033e-06</v>
       </c>
       <c r="FA9" t="n">
-        <v>5.86577016292722e-06</v>
+        <v>0.0001444087538402528</v>
       </c>
       <c r="FB9" t="n">
-        <v>3.135573479084997e-06</v>
+        <v>3.356487286509946e-05</v>
       </c>
       <c r="FC9" t="n">
-        <v>5.67469169254764e-06</v>
+        <v>0.0001493785239290446</v>
       </c>
       <c r="FD9" t="n">
-        <v>1.43535532970418e-06</v>
+        <v>0.0001323484029853716</v>
       </c>
       <c r="FE9" t="n">
-        <v>4.828178816751461e-07</v>
+        <v>1.982711182790808e-05</v>
       </c>
       <c r="FF9" t="n">
-        <v>3.988089702033903e-06</v>
+        <v>5.883148696739227e-05</v>
       </c>
       <c r="FG9" t="n">
-        <v>6.408504304999951e-06</v>
+        <v>0.0001701706642052159</v>
       </c>
       <c r="FH9" t="n">
-        <v>4.67442259832751e-06</v>
+        <v>0.0001916469191201031</v>
       </c>
       <c r="FI9" t="n">
-        <v>7.074670065776445e-06</v>
+        <v>0.00010487693361938</v>
       </c>
       <c r="FJ9" t="n">
-        <v>3.42016164722736e-06</v>
+        <v>6.888022471684963e-05</v>
       </c>
       <c r="FK9" t="n">
-        <v>4.612703378370497e-06</v>
+        <v>4.534409163170494e-05</v>
       </c>
       <c r="FL9" t="n">
-        <v>8.513504326401744e-06</v>
+        <v>5.39328102604486e-05</v>
       </c>
       <c r="FM9" t="n">
-        <v>2.588468305475544e-06</v>
+        <v>3.693166217999533e-05</v>
       </c>
       <c r="FN9" t="n">
-        <v>8.024810995266307e-06</v>
+        <v>6.647210830124095e-05</v>
       </c>
       <c r="FO9" t="n">
-        <v>1.00253043910925e-06</v>
+        <v>0.0001187651796499267</v>
       </c>
       <c r="FP9" t="n">
-        <v>3.637924010035931e-06</v>
+        <v>0.000198991212528199</v>
       </c>
       <c r="FQ9" t="n">
-        <v>5.705643161491025e-06</v>
+        <v>0.0002333442389499396</v>
       </c>
       <c r="FR9" t="n">
-        <v>1.151897549789282e-06</v>
+        <v>0.0002566185430623591</v>
       </c>
       <c r="FS9" t="n">
-        <v>1.772220821294468e-05</v>
+        <v>0.00014134643424768</v>
       </c>
       <c r="FT9" t="n">
-        <v>5.0514395297796e-06</v>
+        <v>0.0005245179054327309</v>
       </c>
       <c r="FU9" t="n">
-        <v>1.066769868884876e-06</v>
+        <v>0.0003392415819689631</v>
       </c>
       <c r="FV9" t="n">
-        <v>1.96787141248933e-06</v>
+        <v>9.70703549683094e-05</v>
       </c>
       <c r="FW9" t="n">
-        <v>8.379487553611398e-06</v>
+        <v>8.893063204595819e-05</v>
       </c>
       <c r="FX9" t="n">
-        <v>8.90640149009414e-06</v>
+        <v>0.0001152378972619772</v>
       </c>
       <c r="FY9" t="n">
-        <v>4.280243501852965e-06</v>
+        <v>7.548858411610126e-05</v>
       </c>
       <c r="FZ9" t="n">
-        <v>1.596913716639392e-05</v>
+        <v>0.0003204475506208837</v>
       </c>
       <c r="GA9" t="n">
-        <v>5.126528776600026e-06</v>
+        <v>1.288768817175878e-05</v>
       </c>
       <c r="GB9" t="n">
-        <v>1.454005769119249e-06</v>
+        <v>0.000272472680080682</v>
       </c>
       <c r="GC9" t="n">
-        <v>3.196526904503116e-06</v>
+        <v>0.0001341932656941935</v>
       </c>
       <c r="GD9" t="n">
-        <v>1.040965616994072e-05</v>
+        <v>8.452955808024853e-05</v>
       </c>
       <c r="GE9" t="n">
-        <v>3.615699824877083e-06</v>
+        <v>9.152410348178819e-05</v>
       </c>
       <c r="GF9" t="n">
-        <v>4.359031663625501e-06</v>
+        <v>0.0002005388669203967</v>
       </c>
       <c r="GG9" t="n">
-        <v>6.543741619680077e-06</v>
+        <v>8.723649443709292e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.355222750338726e-05</v>
+        <v>0.0002554201346356422</v>
       </c>
       <c r="B10" t="n">
-        <v>1.454256380384322e-05</v>
+        <v>0.001933258608914912</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001050846549333073</v>
+        <v>9.472017700318247e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>3.936632492695935e-05</v>
+        <v>0.0008546625613234937</v>
       </c>
       <c r="E10" t="n">
-        <v>4.614825957105495e-05</v>
+        <v>0.0004462434444576502</v>
       </c>
       <c r="F10" t="n">
-        <v>6.138102435215842e-06</v>
+        <v>0.0004316592821851373</v>
       </c>
       <c r="G10" t="n">
-        <v>1.944988434843253e-05</v>
+        <v>0.0001555760245537385</v>
       </c>
       <c r="H10" t="n">
-        <v>3.459396612015553e-05</v>
+        <v>0.0001668048207648098</v>
       </c>
       <c r="I10" t="n">
-        <v>8.287328819278628e-05</v>
+        <v>6.172934809001163e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>1.010194864647929e-06</v>
+        <v>0.0003665967960841954</v>
       </c>
       <c r="K10" t="n">
-        <v>1.806580257834867e-05</v>
+        <v>0.001240702229551971</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001094736653612927</v>
+        <v>0.0001234559022122994</v>
       </c>
       <c r="M10" t="n">
-        <v>1.750057163008023e-05</v>
+        <v>0.0009062357130460441</v>
       </c>
       <c r="N10" t="n">
-        <v>1.657391294429544e-05</v>
+        <v>0.0008899269159883261</v>
       </c>
       <c r="O10" t="n">
-        <v>2.218728923253366e-06</v>
+        <v>0.0007275561220012605</v>
       </c>
       <c r="P10" t="n">
-        <v>2.753100488916971e-05</v>
+        <v>0.0001148328301496804</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.641825191560201e-05</v>
+        <v>0.0001238649128936231</v>
       </c>
       <c r="R10" t="n">
-        <v>9.432635852135718e-05</v>
+        <v>0.0001079665962606668</v>
       </c>
       <c r="S10" t="n">
-        <v>3.384498313607764e-06</v>
+        <v>5.536824755836278e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>4.012510544271208e-05</v>
+        <v>0.0003484105400275439</v>
       </c>
       <c r="U10" t="n">
-        <v>4.645986336981878e-06</v>
+        <v>3.673848550533876e-05</v>
       </c>
       <c r="V10" t="n">
-        <v>2.036564183072187e-05</v>
+        <v>0.000249070959398523</v>
       </c>
       <c r="W10" t="n">
-        <v>2.170241714338772e-05</v>
+        <v>0.0001710022334009409</v>
       </c>
       <c r="X10" t="n">
-        <v>5.208222319197375e-06</v>
+        <v>0.0002328236732864752</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.100068059007754e-06</v>
+        <v>0.0002098508266499266</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.080137892335188e-05</v>
+        <v>8.887321018846706e-05</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.601880103407893e-05</v>
+        <v>0.0001246547035407275</v>
       </c>
       <c r="AB10" t="n">
-        <v>5.413645340013318e-06</v>
+        <v>0.0001563710102345794</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.926657766191056e-06</v>
+        <v>0.0002610859519336373</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.792279130720999e-06</v>
+        <v>0.0001054981112247333</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.328023037989624e-05</v>
+        <v>1.531270027044229e-05</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.013313158182427e-05</v>
+        <v>0.0001844408689066768</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.418234362266958e-05</v>
+        <v>7.66655575716868e-05</v>
       </c>
       <c r="AH10" t="n">
-        <v>5.605509613815229e-06</v>
+        <v>3.405471215955913e-05</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.832107566064224e-05</v>
+        <v>3.156562161166221e-05</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3.83351907657925e-05</v>
+        <v>5.0548609578982e-05</v>
       </c>
       <c r="AK10" t="n">
-        <v>7.557130629720632e-06</v>
+        <v>0.0001607240265002474</v>
       </c>
       <c r="AL10" t="n">
-        <v>2.288827636220958e-05</v>
+        <v>0.0002134655369445682</v>
       </c>
       <c r="AM10" t="n">
-        <v>7.221894520625938e-06</v>
+        <v>4.852028268942377e-06</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.947855349106248e-06</v>
+        <v>9.27292785490863e-05</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.818675607675686e-06</v>
+        <v>0.0002365758409723639</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.195059823861811e-05</v>
+        <v>0.0002734837180469185</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.311900061613414e-06</v>
+        <v>1.972565951291472e-05</v>
       </c>
       <c r="AR10" t="n">
-        <v>8.981248356576543e-06</v>
+        <v>3.254242983530276e-05</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.148516671240941e-07</v>
+        <v>0.0001142104738391936</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.40751653816551e-05</v>
+        <v>0.0001834812865126878</v>
       </c>
       <c r="AU10" t="n">
-        <v>2.159295399906114e-05</v>
+        <v>0.00143693364225328</v>
       </c>
       <c r="AV10" t="n">
-        <v>7.485141395591199e-05</v>
+        <v>2.130286884494126e-05</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.939626599778421e-05</v>
+        <v>0.0001496952609159052</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.005345256999135e-05</v>
+        <v>0.0002281361521454528</v>
       </c>
       <c r="AY10" t="n">
-        <v>5.528602923732251e-05</v>
+        <v>1.24698144645663e-05</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1.007416358334012e-05</v>
+        <v>0.0001112827667384408</v>
       </c>
       <c r="BA10" t="n">
-        <v>2.065286571450997e-05</v>
+        <v>2.910821058321744e-05</v>
       </c>
       <c r="BB10" t="n">
-        <v>3.095876672887243e-05</v>
+        <v>3.093175837420858e-05</v>
       </c>
       <c r="BC10" t="n">
-        <v>3.557306627044454e-07</v>
+        <v>9.153717110166326e-05</v>
       </c>
       <c r="BD10" t="n">
-        <v>1.121582045016112e-05</v>
+        <v>0.0003163715300615877</v>
       </c>
       <c r="BE10" t="n">
-        <v>3.214033495169133e-05</v>
+        <v>0.0002687149972189218</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.039124708768213e-05</v>
+        <v>0.0001316421403316781</v>
       </c>
       <c r="BG10" t="n">
-        <v>4.988896762370132e-06</v>
+        <v>0.000626243359874934</v>
       </c>
       <c r="BH10" t="n">
-        <v>2.480375587765593e-05</v>
+        <v>0.0003927407960873097</v>
       </c>
       <c r="BI10" t="n">
-        <v>1.925032847793773e-05</v>
+        <v>0.0002370804140809923</v>
       </c>
       <c r="BJ10" t="n">
-        <v>7.687554898438975e-06</v>
+        <v>0.0001046237157424912</v>
       </c>
       <c r="BK10" t="n">
-        <v>2.678102191566722e-06</v>
+        <v>5.011703979107551e-05</v>
       </c>
       <c r="BL10" t="n">
-        <v>2.98795703201904e-06</v>
+        <v>0.0002772693987935781</v>
       </c>
       <c r="BM10" t="n">
-        <v>3.565532097127289e-06</v>
+        <v>0.0003319572715554386</v>
       </c>
       <c r="BN10" t="n">
-        <v>2.613064316392411e-05</v>
+        <v>5.816421253257431e-05</v>
       </c>
       <c r="BO10" t="n">
-        <v>4.15035174228251e-06</v>
+        <v>9.692746243672445e-05</v>
       </c>
       <c r="BP10" t="n">
-        <v>1.144565976574086e-05</v>
+        <v>0.0003025602491106838</v>
       </c>
       <c r="BQ10" t="n">
-        <v>1.722931983749731e-07</v>
+        <v>0.0002041509578702971</v>
       </c>
       <c r="BR10" t="n">
-        <v>1.224896914209239e-05</v>
+        <v>8.813659951556474e-05</v>
       </c>
       <c r="BS10" t="n">
-        <v>3.223800740670413e-05</v>
+        <v>5.339740528143011e-05</v>
       </c>
       <c r="BT10" t="n">
-        <v>2.00049234990729e-05</v>
+        <v>0.0001643155119381845</v>
       </c>
       <c r="BU10" t="n">
-        <v>1.943477764143609e-05</v>
+        <v>0.0001445152593078092</v>
       </c>
       <c r="BV10" t="n">
-        <v>7.931238542369101e-06</v>
+        <v>0.0007370630046352744</v>
       </c>
       <c r="BW10" t="n">
-        <v>2.576677252363879e-05</v>
+        <v>7.714834646321833e-05</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.348618479823926e-05</v>
+        <v>0.0001373595005134121</v>
       </c>
       <c r="BY10" t="n">
-        <v>1.730297299218364e-05</v>
+        <v>7.702563016209751e-05</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1.824679770834337e-06</v>
+        <v>0.0003447943308856338</v>
       </c>
       <c r="CA10" t="n">
-        <v>2.277694648000761e-06</v>
+        <v>4.163844278082252e-05</v>
       </c>
       <c r="CB10" t="n">
-        <v>3.168379407725297e-06</v>
+        <v>9.957193105947226e-05</v>
       </c>
       <c r="CC10" t="n">
-        <v>3.811591159319505e-05</v>
+        <v>0.0001258615520782769</v>
       </c>
       <c r="CD10" t="n">
-        <v>5.240759037405951e-06</v>
+        <v>0.0001440707710571587</v>
       </c>
       <c r="CE10" t="n">
-        <v>1.468774189561373e-05</v>
+        <v>0.0003191879077348858</v>
       </c>
       <c r="CF10" t="n">
-        <v>1.95255870494293e-05</v>
+        <v>9.738165681483224e-05</v>
       </c>
       <c r="CG10" t="n">
-        <v>3.431453251323546e-06</v>
+        <v>7.638313400093466e-05</v>
       </c>
       <c r="CH10" t="n">
-        <v>6.459387805080041e-06</v>
+        <v>3.572559580788948e-05</v>
       </c>
       <c r="CI10" t="n">
-        <v>8.364263521798421e-06</v>
+        <v>0.0001035796376527287</v>
       </c>
       <c r="CJ10" t="n">
-        <v>2.572108542153728e-06</v>
+        <v>4.882965004071593e-05</v>
       </c>
       <c r="CK10" t="n">
-        <v>6.676818884443492e-06</v>
+        <v>1.35939299070742e-05</v>
       </c>
       <c r="CL10" t="n">
-        <v>1.171153871837305e-05</v>
+        <v>5.751432399847545e-05</v>
       </c>
       <c r="CM10" t="n">
-        <v>1.151463220594451e-05</v>
+        <v>0.0002078368852380663</v>
       </c>
       <c r="CN10" t="n">
-        <v>4.079960490344092e-05</v>
+        <v>0.0001835893344832584</v>
       </c>
       <c r="CO10" t="n">
-        <v>1.22818055388052e-05</v>
+        <v>0.000107996427686885</v>
       </c>
       <c r="CP10" t="n">
-        <v>1.502428949606838e-05</v>
+        <v>0.0003509553789626807</v>
       </c>
       <c r="CQ10" t="n">
-        <v>9.849571142694913e-06</v>
+        <v>0.0002998685231432319</v>
       </c>
       <c r="CR10" t="n">
-        <v>8.887761396181304e-06</v>
+        <v>0.0002024346322286874</v>
       </c>
       <c r="CS10" t="n">
-        <v>1.2325677971603e-06</v>
+        <v>0.0001787391374818981</v>
       </c>
       <c r="CT10" t="n">
-        <v>1.099950736715982e-06</v>
+        <v>0.0002925481821876019</v>
       </c>
       <c r="CU10" t="n">
-        <v>3.119109169347212e-05</v>
+        <v>1.354087453364627e-05</v>
       </c>
       <c r="CV10" t="n">
-        <v>5.692522790923249e-06</v>
+        <v>0.0001242465950781479</v>
       </c>
       <c r="CW10" t="n">
-        <v>9.284218322136439e-06</v>
+        <v>0.0002475104993209243</v>
       </c>
       <c r="CX10" t="n">
-        <v>1.58587808982702e-05</v>
+        <v>0.0001096094856620766</v>
       </c>
       <c r="CY10" t="n">
-        <v>4.215989520162111e-06</v>
+        <v>0.0001620938710402697</v>
       </c>
       <c r="CZ10" t="n">
-        <v>1.586966573086102e-05</v>
+        <v>3.963846756960265e-05</v>
       </c>
       <c r="DA10" t="n">
-        <v>5.963869170955149e-06</v>
+        <v>0.0001236835814779624</v>
       </c>
       <c r="DB10" t="n">
-        <v>5.175435035198461e-06</v>
+        <v>6.060966188670136e-05</v>
       </c>
       <c r="DC10" t="n">
-        <v>7.051954526104964e-06</v>
+        <v>2.975802999571897e-05</v>
       </c>
       <c r="DD10" t="n">
-        <v>1.350838101643603e-05</v>
+        <v>4.362189793027937e-05</v>
       </c>
       <c r="DE10" t="n">
-        <v>1.60338149726158e-05</v>
+        <v>6.697494245599955e-05</v>
       </c>
       <c r="DF10" t="n">
-        <v>2.978638804052025e-05</v>
+        <v>0.0003155352897010744</v>
       </c>
       <c r="DG10" t="n">
-        <v>3.178673796355724e-05</v>
+        <v>3.533446215442382e-05</v>
       </c>
       <c r="DH10" t="n">
-        <v>2.8813836252084e-05</v>
+        <v>0.0003023584431502968</v>
       </c>
       <c r="DI10" t="n">
-        <v>2.195278648287058e-05</v>
+        <v>8.702307241037488e-05</v>
       </c>
       <c r="DJ10" t="n">
-        <v>2.341196159250103e-05</v>
+        <v>5.648224760079756e-05</v>
       </c>
       <c r="DK10" t="n">
-        <v>3.10803770844359e-05</v>
+        <v>0.0001172984266304411</v>
       </c>
       <c r="DL10" t="n">
-        <v>7.096658009686507e-06</v>
+        <v>3.699368244269863e-05</v>
       </c>
       <c r="DM10" t="n">
-        <v>2.396935451542959e-05</v>
+        <v>8.695494761923328e-05</v>
       </c>
       <c r="DN10" t="n">
-        <v>9.033098649524618e-06</v>
+        <v>0.0002046176668955013</v>
       </c>
       <c r="DO10" t="n">
-        <v>9.136396329267882e-06</v>
+        <v>6.632119766436517e-05</v>
       </c>
       <c r="DP10" t="n">
-        <v>8.391940355068073e-06</v>
+        <v>0.0001161317341029644</v>
       </c>
       <c r="DQ10" t="n">
-        <v>8.928951501729898e-06</v>
+        <v>9.719307854538783e-05</v>
       </c>
       <c r="DR10" t="n">
-        <v>2.683250841073459e-06</v>
+        <v>7.977368659339845e-05</v>
       </c>
       <c r="DS10" t="n">
-        <v>1.982302092073951e-05</v>
+        <v>0.0002442709519527853</v>
       </c>
       <c r="DT10" t="n">
-        <v>1.305608066104469e-06</v>
+        <v>7.239053957164288e-05</v>
       </c>
       <c r="DU10" t="n">
-        <v>6.374638815032085e-06</v>
+        <v>1.850860644481145e-05</v>
       </c>
       <c r="DV10" t="n">
-        <v>2.045858491328545e-05</v>
+        <v>7.757174898870289e-05</v>
       </c>
       <c r="DW10" t="n">
-        <v>5.28704549651593e-06</v>
+        <v>0.0001529233122710139</v>
       </c>
       <c r="DX10" t="n">
-        <v>4.463794539333321e-06</v>
+        <v>4.46263984485995e-05</v>
       </c>
       <c r="DY10" t="n">
-        <v>1.131299995904556e-05</v>
+        <v>0.0002908609458245337</v>
       </c>
       <c r="DZ10" t="n">
-        <v>1.568052994116442e-06</v>
+        <v>0.0001015876041492447</v>
       </c>
       <c r="EA10" t="n">
-        <v>9.542768566461746e-06</v>
+        <v>0.0002231372491223738</v>
       </c>
       <c r="EB10" t="n">
-        <v>3.009562533407006e-06</v>
+        <v>0.0001028896949719638</v>
       </c>
       <c r="EC10" t="n">
-        <v>7.668944817851298e-06</v>
+        <v>1.952678212546743e-05</v>
       </c>
       <c r="ED10" t="n">
-        <v>1.959512155735865e-05</v>
+        <v>6.191922147991136e-05</v>
       </c>
       <c r="EE10" t="n">
-        <v>1.993105115616345e-06</v>
+        <v>2.289797157573048e-05</v>
       </c>
       <c r="EF10" t="n">
-        <v>9.826613677432761e-06</v>
+        <v>4.221743438392878e-05</v>
       </c>
       <c r="EG10" t="n">
-        <v>1.759181395755149e-05</v>
+        <v>0.0001474918681196868</v>
       </c>
       <c r="EH10" t="n">
-        <v>1.552072717458941e-05</v>
+        <v>1.185788005386712e-05</v>
       </c>
       <c r="EI10" t="n">
-        <v>4.558671207632869e-06</v>
+        <v>6.880508590256795e-05</v>
       </c>
       <c r="EJ10" t="n">
-        <v>4.649163201975171e-06</v>
+        <v>7.745707989670336e-05</v>
       </c>
       <c r="EK10" t="n">
-        <v>1.570850690768566e-05</v>
+        <v>9.946606587618589e-05</v>
       </c>
       <c r="EL10" t="n">
-        <v>5.789742317574564e-06</v>
+        <v>9.584413783159107e-05</v>
       </c>
       <c r="EM10" t="n">
-        <v>1.443568908143789e-05</v>
+        <v>4.729223292088136e-05</v>
       </c>
       <c r="EN10" t="n">
-        <v>6.490090072475141e-06</v>
+        <v>9.634048183215782e-06</v>
       </c>
       <c r="EO10" t="n">
-        <v>1.324777986155823e-05</v>
+        <v>9.148247772827744e-05</v>
       </c>
       <c r="EP10" t="n">
-        <v>3.763904715015087e-06</v>
+        <v>0.0002106080501107499</v>
       </c>
       <c r="EQ10" t="n">
-        <v>6.877736268506851e-06</v>
+        <v>2.520075213396922e-05</v>
       </c>
       <c r="ER10" t="n">
-        <v>1.953564969880972e-05</v>
+        <v>0.0001294906105613336</v>
       </c>
       <c r="ES10" t="n">
-        <v>5.409457116911653e-06</v>
+        <v>0.0001497858029324561</v>
       </c>
       <c r="ET10" t="n">
-        <v>2.338693320780294e-06</v>
+        <v>0.0004881607310380787</v>
       </c>
       <c r="EU10" t="n">
-        <v>1.870509004220366e-05</v>
+        <v>0.0001789935922715813</v>
       </c>
       <c r="EV10" t="n">
-        <v>2.290943029947812e-06</v>
+        <v>0.0002055456134257838</v>
       </c>
       <c r="EW10" t="n">
-        <v>2.713614594540559e-05</v>
+        <v>2.782213414320722e-06</v>
       </c>
       <c r="EX10" t="n">
-        <v>2.750811290752608e-06</v>
+        <v>0.0001000164484139532</v>
       </c>
       <c r="EY10" t="n">
-        <v>1.039341077557765e-05</v>
+        <v>0.0002686510269995779</v>
       </c>
       <c r="EZ10" t="n">
-        <v>1.699566564639099e-05</v>
+        <v>3.595216185203753e-05</v>
       </c>
       <c r="FA10" t="n">
-        <v>3.033172333744005e-06</v>
+        <v>0.0001156079961219802</v>
       </c>
       <c r="FB10" t="n">
-        <v>4.963496849086368e-06</v>
+        <v>1.275286194868386e-05</v>
       </c>
       <c r="FC10" t="n">
-        <v>3.712477337103337e-06</v>
+        <v>0.0001500622456660494</v>
       </c>
       <c r="FD10" t="n">
-        <v>4.982459813618334e-06</v>
+        <v>7.811730029061437e-05</v>
       </c>
       <c r="FE10" t="n">
-        <v>1.011067251965869e-05</v>
+        <v>2.992819281644188e-05</v>
       </c>
       <c r="FF10" t="n">
-        <v>1.976262865355238e-05</v>
+        <v>7.693337101954967e-05</v>
       </c>
       <c r="FG10" t="n">
-        <v>2.07240827876376e-06</v>
+        <v>6.415987445507199e-05</v>
       </c>
       <c r="FH10" t="n">
-        <v>2.667783064680407e-06</v>
+        <v>0.0001399301836499944</v>
       </c>
       <c r="FI10" t="n">
-        <v>1.213065206684405e-05</v>
+        <v>6.491695967270061e-05</v>
       </c>
       <c r="FJ10" t="n">
-        <v>1.097288986784406e-06</v>
+        <v>0.0001461436186218634</v>
       </c>
       <c r="FK10" t="n">
-        <v>1.190596867672866e-05</v>
+        <v>3.305522113805637e-05</v>
       </c>
       <c r="FL10" t="n">
-        <v>1.192580748465843e-05</v>
+        <v>5.714003782486543e-05</v>
       </c>
       <c r="FM10" t="n">
-        <v>6.83850748828263e-06</v>
+        <v>2.010119351325557e-05</v>
       </c>
       <c r="FN10" t="n">
-        <v>6.68700613459805e-06</v>
+        <v>6.714853952871636e-05</v>
       </c>
       <c r="FO10" t="n">
-        <v>1.760365921654738e-05</v>
+        <v>0.0001289217034354806</v>
       </c>
       <c r="FP10" t="n">
-        <v>1.790057922335109e-06</v>
+        <v>2.81819829979213e-05</v>
       </c>
       <c r="FQ10" t="n">
-        <v>2.739070623647422e-05</v>
+        <v>5.920386320212856e-05</v>
       </c>
       <c r="FR10" t="n">
-        <v>9.584639883541968e-06</v>
+        <v>2.879144085454755e-05</v>
       </c>
       <c r="FS10" t="n">
-        <v>9.236344340024516e-06</v>
+        <v>0.0002796005574055016</v>
       </c>
       <c r="FT10" t="n">
-        <v>1.720640466373879e-05</v>
+        <v>0.0002191731036873534</v>
       </c>
       <c r="FU10" t="n">
-        <v>7.107803867256735e-06</v>
+        <v>5.158065687282942e-05</v>
       </c>
       <c r="FV10" t="n">
-        <v>8.97176141734235e-06</v>
+        <v>0.0001138464358518831</v>
       </c>
       <c r="FW10" t="n">
-        <v>3.475952325970866e-07</v>
+        <v>1.014780355035327e-05</v>
       </c>
       <c r="FX10" t="n">
-        <v>7.571609785372857e-06</v>
+        <v>9.669059363659471e-05</v>
       </c>
       <c r="FY10" t="n">
-        <v>8.7055450421758e-06</v>
+        <v>0.0002637908328324556</v>
       </c>
       <c r="FZ10" t="n">
-        <v>1.114485075959237e-05</v>
+        <v>0.0001199489706777968</v>
       </c>
       <c r="GA10" t="n">
-        <v>1.017717636386806e-06</v>
+        <v>4.421350604388863e-05</v>
       </c>
       <c r="GB10" t="n">
-        <v>2.084918014588766e-05</v>
+        <v>0.0001145424612332135</v>
       </c>
       <c r="GC10" t="n">
-        <v>1.036868343362585e-05</v>
+        <v>0.0001178060774691403</v>
       </c>
       <c r="GD10" t="n">
-        <v>2.892343582061585e-05</v>
+        <v>0.0002776082546915859</v>
       </c>
       <c r="GE10" t="n">
-        <v>1.401948338752845e-05</v>
+        <v>0.0004539125366136432</v>
       </c>
       <c r="GF10" t="n">
-        <v>2.542848233133554e-05</v>
+        <v>3.191838186467066e-05</v>
       </c>
       <c r="GG10" t="n">
-        <v>9.051223059941549e-08</v>
+        <v>5.026242433814332e-05</v>
       </c>
     </row>
     <row r="11">
@@ -6694,2278 +6694,2278 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.755693806477666e-08</v>
+        <v>1.774847074864638e-10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.74610597886749e-09</v>
+        <v>1.726673665158884e-10</v>
       </c>
       <c r="C12" t="n">
-        <v>2.310047193532228e-07</v>
+        <v>7.630948650749758e-11</v>
       </c>
       <c r="D12" t="n">
-        <v>1.215284868294475e-07</v>
+        <v>8.601739875935266e-10</v>
       </c>
       <c r="E12" t="n">
-        <v>1.351065463950363e-07</v>
+        <v>1.049426032184719e-10</v>
       </c>
       <c r="F12" t="n">
-        <v>5.1113630661348e-08</v>
+        <v>9.264601585901033e-11</v>
       </c>
       <c r="G12" t="n">
-        <v>2.038749613575419e-09</v>
+        <v>3.959498701133768e-11</v>
       </c>
       <c r="H12" t="n">
-        <v>6.75886813183979e-09</v>
+        <v>6.856931689114276e-11</v>
       </c>
       <c r="I12" t="n">
-        <v>1.822400150786052e-07</v>
+        <v>4.582202672853697e-13</v>
       </c>
       <c r="J12" t="n">
-        <v>8.094118442159015e-08</v>
+        <v>2.26672444703091e-10</v>
       </c>
       <c r="K12" t="n">
-        <v>2.664741760582956e-09</v>
+        <v>9.941601014640256e-11</v>
       </c>
       <c r="L12" t="n">
-        <v>2.712823174988443e-07</v>
+        <v>4.969029701595851e-11</v>
       </c>
       <c r="M12" t="n">
-        <v>1.14318574162553e-07</v>
+        <v>3.465780995526302e-10</v>
       </c>
       <c r="N12" t="n">
-        <v>9.516823240574013e-08</v>
+        <v>8.61288956821582e-11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.044926101201327e-08</v>
+        <v>3.575171270142619e-10</v>
       </c>
       <c r="P12" t="n">
-        <v>2.163461942927825e-08</v>
+        <v>1.300781010682428e-10</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.976321328811537e-08</v>
+        <v>3.119989266942014e-10</v>
       </c>
       <c r="R12" t="n">
-        <v>1.932499884560457e-07</v>
+        <v>4.485330856729419e-11</v>
       </c>
       <c r="S12" t="n">
-        <v>2.727565373561447e-08</v>
+        <v>2.432536810870189e-12</v>
       </c>
       <c r="T12" t="n">
-        <v>4.976674361500955e-08</v>
+        <v>8.064366015247959e-12</v>
       </c>
       <c r="U12" t="n">
-        <v>2.67921240748592e-08</v>
+        <v>9.247821952662605e-11</v>
       </c>
       <c r="V12" t="n">
-        <v>4.12526901527599e-08</v>
+        <v>1.820638258209772e-11</v>
       </c>
       <c r="W12" t="n">
-        <v>2.274934018942076e-09</v>
+        <v>1.971986463011888e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>9.017112390097282e-09</v>
+        <v>9.605571546500435e-12</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.689752231001876e-08</v>
+        <v>3.305227758154672e-10</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.238705398838192e-08</v>
+        <v>8.353649716408285e-11</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.937238369720262e-09</v>
+        <v>1.68597330540976e-10</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.304564545279163e-08</v>
+        <v>1.112964650995529e-10</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.483433878656797e-08</v>
+        <v>1.42390099711065e-10</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.706480266098879e-08</v>
+        <v>7.319328476640408e-11</v>
       </c>
       <c r="AE12" t="n">
-        <v>6.109532080245117e-08</v>
+        <v>1.426788825975578e-10</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.769800661577392e-08</v>
+        <v>7.59612650558239e-11</v>
       </c>
       <c r="AG12" t="n">
-        <v>7.147238356708385e-09</v>
+        <v>2.546865496277917e-10</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.491347986388064e-09</v>
+        <v>6.504620453373633e-11</v>
       </c>
       <c r="AI12" t="n">
-        <v>1.033934609040443e-07</v>
+        <v>1.60374449831302e-10</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7.163438908719399e-08</v>
+        <v>7.609776003780766e-11</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.75030051458225e-09</v>
+        <v>2.036895131729555e-11</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.284674588930557e-09</v>
+        <v>9.670891865098952e-11</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.593507275605589e-08</v>
+        <v>9.015972690651353e-11</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.007186061803168e-08</v>
+        <v>5.064574107316311e-11</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.343433275735606e-08</v>
+        <v>1.820925216167169e-10</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.150038073660653e-07</v>
+        <v>1.271074356878898e-10</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.46830023087341e-09</v>
+        <v>1.464720011945531e-10</v>
       </c>
       <c r="AR12" t="n">
-        <v>4.429783828641121e-08</v>
+        <v>1.024473561539452e-10</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.379036884685547e-08</v>
+        <v>1.01378294647958e-10</v>
       </c>
       <c r="AT12" t="n">
-        <v>4.082003712824189e-08</v>
+        <v>9.173946324825266e-13</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.309251811993818e-08</v>
+        <v>3.957686262046067e-11</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.459829093164444e-07</v>
+        <v>6.119806050808307e-11</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.696962925734624e-08</v>
+        <v>4.299079425784669e-10</v>
       </c>
       <c r="AX12" t="n">
-        <v>3.801113734880346e-08</v>
+        <v>6.099913629764586e-11</v>
       </c>
       <c r="AY12" t="n">
-        <v>1.559409810170109e-07</v>
+        <v>8.1664432161066e-12</v>
       </c>
       <c r="AZ12" t="n">
-        <v>6.003647001762147e-08</v>
+        <v>1.133554222709776e-10</v>
       </c>
       <c r="BA12" t="n">
-        <v>4.206097514725116e-08</v>
+        <v>5.409204334450024e-11</v>
       </c>
       <c r="BB12" t="n">
-        <v>3.98117627753436e-08</v>
+        <v>2.572462798333675e-10</v>
       </c>
       <c r="BC12" t="n">
-        <v>1.321069031945399e-08</v>
+        <v>1.665989013410751e-10</v>
       </c>
       <c r="BD12" t="n">
-        <v>2.096196638490255e-08</v>
+        <v>7.335534957242373e-11</v>
       </c>
       <c r="BE12" t="n">
-        <v>4.524706298525416e-08</v>
+        <v>2.366138535103701e-11</v>
       </c>
       <c r="BF12" t="n">
-        <v>4.05044566775814e-08</v>
+        <v>2.61026235348627e-11</v>
       </c>
       <c r="BG12" t="n">
-        <v>2.136557952781004e-08</v>
+        <v>1.358779061488846e-11</v>
       </c>
       <c r="BH12" t="n">
-        <v>6.940224750451307e-08</v>
+        <v>3.376813759170538e-11</v>
       </c>
       <c r="BI12" t="n">
-        <v>1.31389654711711e-09</v>
+        <v>3.151407954038454e-11</v>
       </c>
       <c r="BJ12" t="n">
-        <v>4.306252776586916e-08</v>
+        <v>4.187980517933454e-10</v>
       </c>
       <c r="BK12" t="n">
-        <v>7.22223418847534e-08</v>
+        <v>3.677868426477104e-11</v>
       </c>
       <c r="BL12" t="n">
-        <v>4.811819920291782e-08</v>
+        <v>5.712349343545142e-11</v>
       </c>
       <c r="BM12" t="n">
-        <v>3.897288713972102e-09</v>
+        <v>8.643597643187562e-11</v>
       </c>
       <c r="BN12" t="n">
-        <v>1.037520149793636e-07</v>
+        <v>5.630165778036655e-11</v>
       </c>
       <c r="BO12" t="n">
-        <v>1.341883315575387e-08</v>
+        <v>1.076800523747146e-10</v>
       </c>
       <c r="BP12" t="n">
-        <v>5.367776623188547e-08</v>
+        <v>1.466460008980874e-10</v>
       </c>
       <c r="BQ12" t="n">
-        <v>5.15621536578692e-08</v>
+        <v>1.451874453994861e-10</v>
       </c>
       <c r="BR12" t="n">
-        <v>2.290986067521317e-08</v>
+        <v>3.363594472394205e-11</v>
       </c>
       <c r="BS12" t="n">
-        <v>1.650077052772758e-08</v>
+        <v>2.533312969121848e-12</v>
       </c>
       <c r="BT12" t="n">
-        <v>1.005579353119401e-08</v>
+        <v>4.881610393692171e-11</v>
       </c>
       <c r="BU12" t="n">
-        <v>9.217089314006444e-10</v>
+        <v>1.346413605607388e-11</v>
       </c>
       <c r="BV12" t="n">
-        <v>1.102150193332818e-08</v>
+        <v>2.194050843784545e-11</v>
       </c>
       <c r="BW12" t="n">
-        <v>5.233518152181205e-08</v>
+        <v>2.381412601837329e-11</v>
       </c>
       <c r="BX12" t="n">
-        <v>2.584771152669418e-08</v>
+        <v>1.315093450804383e-10</v>
       </c>
       <c r="BY12" t="n">
-        <v>2.472533289221701e-08</v>
+        <v>6.872397095847305e-11</v>
       </c>
       <c r="BZ12" t="n">
-        <v>8.18664869228769e-09</v>
+        <v>9.550171764516335e-11</v>
       </c>
       <c r="CA12" t="n">
-        <v>2.712446622865627e-08</v>
+        <v>1.863982440619694e-10</v>
       </c>
       <c r="CB12" t="n">
-        <v>2.001561760778259e-08</v>
+        <v>7.563203535676521e-11</v>
       </c>
       <c r="CC12" t="n">
-        <v>5.090105403837697e-08</v>
+        <v>1.861400616975928e-10</v>
       </c>
       <c r="CD12" t="n">
-        <v>4.462706826302565e-08</v>
+        <v>4.398210962097693e-11</v>
       </c>
       <c r="CE12" t="n">
-        <v>4.633585959368247e-08</v>
+        <v>1.865713833426597e-11</v>
       </c>
       <c r="CF12" t="n">
-        <v>4.096197159242365e-08</v>
+        <v>9.807540890527378e-11</v>
       </c>
       <c r="CG12" t="n">
-        <v>4.137604037168785e-09</v>
+        <v>9.248374288617356e-11</v>
       </c>
       <c r="CH12" t="n">
-        <v>5.346196019218041e-08</v>
+        <v>6.404383967595351e-11</v>
       </c>
       <c r="CI12" t="n">
-        <v>4.12877980693338e-08</v>
+        <v>3.070989990083817e-11</v>
       </c>
       <c r="CJ12" t="n">
-        <v>1.839317853580269e-08</v>
+        <v>3.491645861330994e-11</v>
       </c>
       <c r="CK12" t="n">
-        <v>2.047561231677264e-08</v>
+        <v>3.791282912612992e-11</v>
       </c>
       <c r="CL12" t="n">
-        <v>1.436200225413131e-08</v>
+        <v>1.278323280562432e-10</v>
       </c>
       <c r="CM12" t="n">
-        <v>5.885193132826316e-08</v>
+        <v>1.171112790077089e-10</v>
       </c>
       <c r="CN12" t="n">
-        <v>9.260178757131143e-08</v>
+        <v>2.160457091004986e-10</v>
       </c>
       <c r="CO12" t="n">
-        <v>5.214994214242097e-09</v>
+        <v>5.466831154432583e-11</v>
       </c>
       <c r="CP12" t="n">
-        <v>4.227619143648553e-08</v>
+        <v>2.451454039764656e-10</v>
       </c>
       <c r="CQ12" t="n">
-        <v>4.414764021021256e-08</v>
+        <v>1.116957290547838e-10</v>
       </c>
       <c r="CR12" t="n">
-        <v>3.393230230130939e-08</v>
+        <v>2.08795827849606e-10</v>
       </c>
       <c r="CS12" t="n">
-        <v>1.469036270407287e-08</v>
+        <v>1.197369703387352e-10</v>
       </c>
       <c r="CT12" t="n">
-        <v>3.956994021336868e-08</v>
+        <v>3.1824493040844e-10</v>
       </c>
       <c r="CU12" t="n">
-        <v>4.107481998971707e-08</v>
+        <v>1.776742988846003e-11</v>
       </c>
       <c r="CV12" t="n">
-        <v>4.674079079336479e-08</v>
+        <v>4.426433525273055e-11</v>
       </c>
       <c r="CW12" t="n">
-        <v>4.338155434879809e-08</v>
+        <v>2.113383079649367e-11</v>
       </c>
       <c r="CX12" t="n">
-        <v>5.05491044577866e-08</v>
+        <v>3.739584336637236e-11</v>
       </c>
       <c r="CY12" t="n">
-        <v>2.900204520983607e-09</v>
+        <v>1.639642033257616e-10</v>
       </c>
       <c r="CZ12" t="n">
-        <v>5.780893985729563e-08</v>
+        <v>6.435535437887552e-11</v>
       </c>
       <c r="DA12" t="n">
-        <v>4.77015866806596e-08</v>
+        <v>5.556093779501836e-11</v>
       </c>
       <c r="DB12" t="n">
-        <v>9.875469331177555e-10</v>
+        <v>4.083711840907611e-11</v>
       </c>
       <c r="DC12" t="n">
-        <v>4.859034508086779e-09</v>
+        <v>4.298119152257307e-11</v>
       </c>
       <c r="DD12" t="n">
-        <v>3.199775733264687e-08</v>
+        <v>8.921552385743325e-11</v>
       </c>
       <c r="DE12" t="n">
-        <v>1.647535796678312e-08</v>
+        <v>3.273599447073394e-11</v>
       </c>
       <c r="DF12" t="n">
-        <v>1.76638224047565e-07</v>
+        <v>2.128695136827119e-10</v>
       </c>
       <c r="DG12" t="n">
-        <v>1.629840937766858e-07</v>
+        <v>4.959077037902659e-10</v>
       </c>
       <c r="DH12" t="n">
-        <v>2.97679534355666e-08</v>
+        <v>7.880975871898954e-10</v>
       </c>
       <c r="DI12" t="n">
-        <v>2.147445954392424e-08</v>
+        <v>3.227058620325352e-10</v>
       </c>
       <c r="DJ12" t="n">
-        <v>9.017668389788014e-09</v>
+        <v>6.013239906010881e-11</v>
       </c>
       <c r="DK12" t="n">
-        <v>6.108233918666883e-08</v>
+        <v>1.283573768107171e-11</v>
       </c>
       <c r="DL12" t="n">
-        <v>7.706068672064248e-09</v>
+        <v>5.236794886620544e-10</v>
       </c>
       <c r="DM12" t="n">
-        <v>2.060986759033767e-08</v>
+        <v>1.546749534009351e-11</v>
       </c>
       <c r="DN12" t="n">
-        <v>1.178135722312845e-08</v>
+        <v>1.649347151910785e-11</v>
       </c>
       <c r="DO12" t="n">
-        <v>4.427186617306234e-09</v>
+        <v>1.694944705421531e-11</v>
       </c>
       <c r="DP12" t="n">
-        <v>3.674804816000687e-08</v>
+        <v>1.325150544850828e-10</v>
       </c>
       <c r="DQ12" t="n">
-        <v>2.551904820791151e-08</v>
+        <v>5.653350704237781e-11</v>
       </c>
       <c r="DR12" t="n">
-        <v>4.700752143094178e-08</v>
+        <v>9.757732816195741e-11</v>
       </c>
       <c r="DS12" t="n">
-        <v>2.397789167218889e-08</v>
+        <v>1.601885984969798e-10</v>
       </c>
       <c r="DT12" t="n">
-        <v>4.48356107796144e-09</v>
+        <v>2.201721617522967e-11</v>
       </c>
       <c r="DU12" t="n">
-        <v>6.99534794534884e-08</v>
+        <v>5.369863234627736e-11</v>
       </c>
       <c r="DV12" t="n">
-        <v>1.386937142910938e-08</v>
+        <v>2.889709860287581e-10</v>
       </c>
       <c r="DW12" t="n">
-        <v>2.38308253130981e-08</v>
+        <v>1.250624187543181e-10</v>
       </c>
       <c r="DX12" t="n">
-        <v>5.019403204187256e-08</v>
+        <v>1.393549685368978e-11</v>
       </c>
       <c r="DY12" t="n">
-        <v>3.586457353321748e-08</v>
+        <v>2.139269872358796e-10</v>
       </c>
       <c r="DZ12" t="n">
-        <v>3.67897801112349e-09</v>
+        <v>4.649715334981153e-11</v>
       </c>
       <c r="EA12" t="n">
-        <v>4.177825374540589e-08</v>
+        <v>1.094169893578467e-10</v>
       </c>
       <c r="EB12" t="n">
-        <v>3.680779059322958e-08</v>
+        <v>2.715712932310765e-10</v>
       </c>
       <c r="EC12" t="n">
-        <v>1.284131379009068e-08</v>
+        <v>6.786630979416231e-11</v>
       </c>
       <c r="ED12" t="n">
-        <v>3.211689403315177e-08</v>
+        <v>5.570290409484535e-11</v>
       </c>
       <c r="EE12" t="n">
-        <v>2.319162284436516e-08</v>
+        <v>1.726142319358193e-11</v>
       </c>
       <c r="EF12" t="n">
-        <v>8.299289078195216e-08</v>
+        <v>2.626534753580323e-11</v>
       </c>
       <c r="EG12" t="n">
-        <v>3.72770756484897e-08</v>
+        <v>2.366974498346774e-11</v>
       </c>
       <c r="EH12" t="n">
-        <v>5.421335202981936e-08</v>
+        <v>6.084661247074408e-11</v>
       </c>
       <c r="EI12" t="n">
-        <v>7.320174688629777e-09</v>
+        <v>7.852890560045012e-11</v>
       </c>
       <c r="EJ12" t="n">
-        <v>4.807357711911209e-08</v>
+        <v>4.339915926632187e-11</v>
       </c>
       <c r="EK12" t="n">
-        <v>1.259025452782225e-07</v>
+        <v>4.923690968827721e-11</v>
       </c>
       <c r="EL12" t="n">
-        <v>2.061297799116346e-08</v>
+        <v>6.414248993058536e-11</v>
       </c>
       <c r="EM12" t="n">
-        <v>5.87553383724071e-09</v>
+        <v>1.276027807722846e-11</v>
       </c>
       <c r="EN12" t="n">
-        <v>1.665811488749114e-09</v>
+        <v>7.8795442393087e-11</v>
       </c>
       <c r="EO12" t="n">
-        <v>1.123316906159744e-08</v>
+        <v>3.929590680629147e-11</v>
       </c>
       <c r="EP12" t="n">
-        <v>2.852748437476293e-08</v>
+        <v>1.306781072241137e-10</v>
       </c>
       <c r="EQ12" t="n">
-        <v>2.990639202948842e-08</v>
+        <v>9.110329157735464e-11</v>
       </c>
       <c r="ER12" t="n">
-        <v>2.280476252281005e-09</v>
+        <v>2.866486562003168e-11</v>
       </c>
       <c r="ES12" t="n">
-        <v>4.334632652813752e-09</v>
+        <v>2.659047149133897e-10</v>
       </c>
       <c r="ET12" t="n">
-        <v>7.453967043602461e-08</v>
+        <v>1.051480430502849e-10</v>
       </c>
       <c r="EU12" t="n">
-        <v>1.977713637302259e-08</v>
+        <v>3.271150711414705e-11</v>
       </c>
       <c r="EV12" t="n">
-        <v>1.810451699668647e-08</v>
+        <v>2.512785535202511e-10</v>
       </c>
       <c r="EW12" t="n">
-        <v>1.735717347628452e-09</v>
+        <v>8.587446032048973e-11</v>
       </c>
       <c r="EX12" t="n">
-        <v>5.440566042125283e-08</v>
+        <v>5.159475624516574e-11</v>
       </c>
       <c r="EY12" t="n">
-        <v>4.168637346424475e-08</v>
+        <v>8.061976433659801e-12</v>
       </c>
       <c r="EZ12" t="n">
-        <v>4.762909000533e-08</v>
+        <v>6.989597095552469e-11</v>
       </c>
       <c r="FA12" t="n">
-        <v>1.050329334617572e-08</v>
+        <v>1.21648247031203e-10</v>
       </c>
       <c r="FB12" t="n">
-        <v>3.002328341494831e-08</v>
+        <v>4.552332122376157e-11</v>
       </c>
       <c r="FC12" t="n">
-        <v>3.634653822359724e-08</v>
+        <v>3.442663515373923e-11</v>
       </c>
       <c r="FD12" t="n">
-        <v>8.356588310221014e-09</v>
+        <v>4.730331057412052e-11</v>
       </c>
       <c r="FE12" t="n">
-        <v>2.070665061637555e-08</v>
+        <v>2.377358553073972e-11</v>
       </c>
       <c r="FF12" t="n">
-        <v>3.526360359273895e-08</v>
+        <v>1.198158100512714e-10</v>
       </c>
       <c r="FG12" t="n">
-        <v>3.212836574562061e-08</v>
+        <v>6.080588116352814e-11</v>
       </c>
       <c r="FH12" t="n">
-        <v>2.058459003251301e-08</v>
+        <v>1.181131303873428e-10</v>
       </c>
       <c r="FI12" t="n">
-        <v>1.165881258202717e-08</v>
+        <v>2.288662592775381e-10</v>
       </c>
       <c r="FJ12" t="n">
-        <v>4.386499341535455e-08</v>
+        <v>2.022118444910959e-10</v>
       </c>
       <c r="FK12" t="n">
-        <v>2.261544018722361e-08</v>
+        <v>1.366796814616933e-10</v>
       </c>
       <c r="FL12" t="n">
-        <v>6.870440927286836e-08</v>
+        <v>2.919416791646867e-11</v>
       </c>
       <c r="FM12" t="n">
-        <v>6.72777122900925e-09</v>
+        <v>1.522046655377807e-10</v>
       </c>
       <c r="FN12" t="n">
-        <v>2.638331153548279e-08</v>
+        <v>1.17612697358993e-10</v>
       </c>
       <c r="FO12" t="n">
-        <v>7.035305671365677e-09</v>
+        <v>3.491849864811769e-11</v>
       </c>
       <c r="FP12" t="n">
-        <v>8.122156280876425e-09</v>
+        <v>6.487600734406129e-11</v>
       </c>
       <c r="FQ12" t="n">
-        <v>1.122196806591091e-07</v>
+        <v>1.629115245482815e-12</v>
       </c>
       <c r="FR12" t="n">
-        <v>8.695586473095318e-10</v>
+        <v>3.190250841278441e-11</v>
       </c>
       <c r="FS12" t="n">
-        <v>3.124500125295526e-08</v>
+        <v>3.797259034987732e-11</v>
       </c>
       <c r="FT12" t="n">
-        <v>5.130821989496326e-08</v>
+        <v>1.124582232892024e-10</v>
       </c>
       <c r="FU12" t="n">
-        <v>2.06619148457321e-08</v>
+        <v>5.383082174459375e-11</v>
       </c>
       <c r="FV12" t="n">
-        <v>4.629130856415031e-08</v>
+        <v>2.614599509120907e-11</v>
       </c>
       <c r="FW12" t="n">
-        <v>1.772463065208285e-08</v>
+        <v>6.428007431891203e-12</v>
       </c>
       <c r="FX12" t="n">
-        <v>4.525315233649962e-08</v>
+        <v>4.569988051178475e-12</v>
       </c>
       <c r="FY12" t="n">
-        <v>4.744323156558039e-09</v>
+        <v>1.489395967668727e-10</v>
       </c>
       <c r="FZ12" t="n">
-        <v>2.759599837531823e-08</v>
+        <v>1.402003235728699e-10</v>
       </c>
       <c r="GA12" t="n">
-        <v>2.482693162164651e-09</v>
+        <v>5.938000091632034e-11</v>
       </c>
       <c r="GB12" t="n">
-        <v>2.04076133769604e-09</v>
+        <v>6.468682794275038e-12</v>
       </c>
       <c r="GC12" t="n">
-        <v>3.811998272595929e-09</v>
+        <v>1.305323765743438e-10</v>
       </c>
       <c r="GD12" t="n">
-        <v>7.859179973479513e-09</v>
+        <v>3.780142865394964e-11</v>
       </c>
       <c r="GE12" t="n">
-        <v>8.883315416596815e-09</v>
+        <v>3.444475260572233e-10</v>
       </c>
       <c r="GF12" t="n">
-        <v>3.260265657445416e-08</v>
+        <v>1.481323119723044e-10</v>
       </c>
       <c r="GG12" t="n">
-        <v>3.499724243738456e-08</v>
+        <v>2.113133418246704e-10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.008497884497046471</v>
+        <v>0.0002604331530164927</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01691534370183945</v>
+        <v>0.001660062931478024</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004756071604788303</v>
+        <v>6.651979492744431e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02280852757394314</v>
+        <v>0.0008850174490362406</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01425740588456392</v>
+        <v>6.145401857793331e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0006510477396659553</v>
+        <v>0.001480439677834511</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00200764974579215</v>
+        <v>5.837149365106598e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00542924040928483</v>
+        <v>0.0002766400284599513</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02315992116928101</v>
+        <v>0.0001205522348755039</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004989496432244778</v>
+        <v>0.0003750566975213587</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01548081357032061</v>
+        <v>0.001378772314637899</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01196503359824419</v>
+        <v>6.708537694066763e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02150812745094299</v>
+        <v>0.0009362052660435438</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01833272352814674</v>
+        <v>0.0001405906659783795</v>
       </c>
       <c r="O13" t="n">
-        <v>0.00992476474493742</v>
+        <v>0.00148351676762104</v>
       </c>
       <c r="P13" t="n">
-        <v>0.002939419355243444</v>
+        <v>0.0001717457344057038</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.006567639298737049</v>
+        <v>1.726692426018417e-05</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0232805609703064</v>
+        <v>9.732496982906014e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>0.00359304016456008</v>
+        <v>0.0001025252640829422</v>
       </c>
       <c r="T13" t="n">
-        <v>0.003383409231901169</v>
+        <v>0.0002459709940012544</v>
       </c>
       <c r="U13" t="n">
-        <v>0.001668446697294712</v>
+        <v>2.064443833660334e-07</v>
       </c>
       <c r="V13" t="n">
-        <v>0.007140771485865116</v>
+        <v>0.0002349505957681686</v>
       </c>
       <c r="W13" t="n">
-        <v>0.01981244049966335</v>
+        <v>6.716658390359953e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>0.006747263018041849</v>
+        <v>2.123889134963974e-05</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.00405148696154356</v>
+        <v>0.0001111570600187406</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.002970764879137278</v>
+        <v>7.440048648277298e-06</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0026564986910671</v>
+        <v>0.0001796883443603292</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.001082589500583708</v>
+        <v>4.715649993158877e-05</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.005387627519667149</v>
+        <v>0.0001541853416711092</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.002344239503145218</v>
+        <v>7.547512359451503e-05</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.007419345900416374</v>
+        <v>0.0001584462297614664</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.007193580269813538</v>
+        <v>4.400765465106815e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.01130655314773321</v>
+        <v>5.171446173335426e-05</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.001163850305601954</v>
+        <v>0.0002922421554103494</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.009115977212786674</v>
+        <v>9.738860535435379e-05</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.006802127696573734</v>
+        <v>7.241370622068644e-05</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.004952096845954657</v>
+        <v>0.0001746597117744386</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.01206159126013517</v>
+        <v>0.0002494444197509438</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.003382018301635981</v>
+        <v>8.002412505447865e-05</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.003505719127133489</v>
+        <v>6.546274380525574e-05</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0006268309662118554</v>
+        <v>1.613904350961093e-05</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.007982491515576839</v>
+        <v>0.000245173490839079</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.002381380880251527</v>
+        <v>0.0001286412007175386</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.003485757391899824</v>
+        <v>1.950253499671817e-05</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.00154814962297678</v>
+        <v>0.0001606988080311567</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.0005983241135254502</v>
+        <v>0.0002528015756979585</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.0002095639938488603</v>
+        <v>0.001266594743356109</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.007442063186317682</v>
+        <v>0.0001425498339813203</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.008499907329678535</v>
+        <v>0.0001566908613312989</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0001841546036303043</v>
+        <v>0.0003451613301876932</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.01327996421605349</v>
+        <v>0.0007440198678523302</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.003010760759934783</v>
+        <v>0.0001451189164072275</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.001929183024913073</v>
+        <v>0.0002617205027490854</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.006996273994445801</v>
+        <v>0.0002012876211665571</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.003572025336325169</v>
+        <v>0.0001927924167830497</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.01184361800551414</v>
+        <v>0.0003194980672560632</v>
       </c>
       <c r="BE13" t="n">
-        <v>6.847613258287311e-05</v>
+        <v>0.0003961033944506198</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.007889493368566036</v>
+        <v>0.000448762031737715</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.005429077427834272</v>
+        <v>0.0005152715020813048</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.001024271012283862</v>
+        <v>0.0005708853132091463</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0007551292655989528</v>
+        <v>2.655704884091392e-05</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.001938885077834129</v>
+        <v>0.0003353726642671973</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.009102946147322655</v>
+        <v>5.480764593812637e-05</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0001649281184654683</v>
+        <v>8.866811549523845e-05</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.002117831958457828</v>
+        <v>0.0004013545403722674</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.008018601685762405</v>
+        <v>0.0001040540300891735</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.005009864922612906</v>
+        <v>0.0003669765428639948</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0003885162877850235</v>
+        <v>0.0003132672281935811</v>
       </c>
       <c r="BQ13" t="n">
-        <v>1.008938124869019e-05</v>
+        <v>7.107226338121109e-06</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.00250652595423162</v>
+        <v>0.0002570191281847656</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.003795994678512216</v>
+        <v>8.029626042116433e-05</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.003968567121773958</v>
+        <v>3.414385719224811e-05</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.005337676499038935</v>
+        <v>0.0001216333475895226</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.008316243998706341</v>
+        <v>0.0006203593802638352</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.003390291938558221</v>
+        <v>1.085572876036167e-08</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.007732646074146032</v>
+        <v>4.784129487234168e-05</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.008529840037226677</v>
+        <v>3.939406815334223e-05</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.00066953687928617</v>
+        <v>0.0001333430700469762</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.0001597623195266351</v>
+        <v>0.0002342527877772227</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.00173472985625267</v>
+        <v>0.0001548231521155685</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.01432738173753023</v>
+        <v>0.0001627870806260034</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.003715129103511572</v>
+        <v>3.934180858777836e-05</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.007344184443354607</v>
+        <v>0.0003175743040628731</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.001083678333088756</v>
+        <v>0.0001295849069720134</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.004642651416361332</v>
+        <v>0.0001821978075895458</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.003418651642277837</v>
+        <v>0.0001147993971244432</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0008346171816810966</v>
+        <v>0.0002603350149001926</v>
       </c>
       <c r="CJ13" t="n">
-        <v>5.655246786773205e-05</v>
+        <v>6.783636490581557e-05</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.0005812582676298916</v>
+        <v>1.856555172707886e-05</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.002532455138862133</v>
+        <v>9.81505581876263e-05</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.000179332448169589</v>
+        <v>0.0002454123459756374</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.009349440224468708</v>
+        <v>0.0002099352423101664</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0006497561698779464</v>
+        <v>4.348433139966801e-05</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.006904946640133858</v>
+        <v>0.0002421570825390518</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.00857825018465519</v>
+        <v>8.676296420162544e-05</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.01023530960083008</v>
+        <v>2.678458258742467e-05</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.0007166785653680563</v>
+        <v>4.322004315326922e-05</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.003176886588335037</v>
+        <v>0.0002076459059026092</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.001577527960762382</v>
+        <v>5.697711094398983e-05</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.00460796058177948</v>
+        <v>1.945233998412732e-05</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.00916198268532753</v>
+        <v>0.0002406459971098229</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.001099834917113185</v>
+        <v>0.0001061745133483782</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.004393916111439466</v>
+        <v>0.0002581325243227184</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.004795902874320745</v>
+        <v>7.903379446361214e-05</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.00150037813000381</v>
+        <v>0.0002423120167804882</v>
       </c>
       <c r="DB13" t="n">
-        <v>9.352876804769039e-05</v>
+        <v>0.0001081159207387827</v>
       </c>
       <c r="DC13" t="n">
-        <v>1.710331889626104e-05</v>
+        <v>0.0001418528845533729</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.00297746155411005</v>
+        <v>5.19130117027089e-05</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.00663382513448596</v>
+        <v>0.000135701586259529</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.01392318308353424</v>
+        <v>0.0005586037295870483</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.01325095631182194</v>
+        <v>4.514932152233087e-05</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.00352129340171814</v>
+        <v>0.0004104810650460422</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.004983835853636265</v>
+        <v>0.0001044502932927571</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.004727361723780632</v>
+        <v>5.613958273897879e-05</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.001823184546083212</v>
+        <v>0.0003330562612973154</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.007304433733224869</v>
+        <v>0.0003080603200942278</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.002164429984986782</v>
+        <v>0.000207724588108249</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.001087468815967441</v>
+        <v>0.0001522573438705876</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.0014558449620381</v>
+        <v>0.0001600317191332579</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.00235488940961659</v>
+        <v>0.0001915666653076187</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.002299079904332757</v>
+        <v>0.0003154341829940677</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.005461878143250942</v>
+        <v>5.005897037335671e-05</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.004011538345366716</v>
+        <v>2.507666795281693e-05</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.001254646806046367</v>
+        <v>1.790030000847764e-05</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.001685694325715303</v>
+        <v>3.611654392443597e-05</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.003418911481276155</v>
+        <v>0.0001334886765107512</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.0003099288733210415</v>
+        <v>2.088624387397431e-05</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.001335454755462706</v>
+        <v>1.888238875835668e-05</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.003727754112333059</v>
+        <v>0.0001305212790612131</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.003430471755564213</v>
+        <v>2.946182939922437e-05</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.003054778557270765</v>
+        <v>5.527559915208258e-05</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.003048986662179232</v>
+        <v>7.33380948076956e-05</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.001666254131123424</v>
+        <v>5.737891115131788e-06</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.002006654627621174</v>
+        <v>3.156361344736069e-05</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.008243878372013569</v>
+        <v>0.0001139950400101952</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.005058152601122856</v>
+        <v>8.087965397862718e-05</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.007991831749677658</v>
+        <v>9.315184433944523e-05</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.0004964667023159564</v>
+        <v>2.390327063039877e-05</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.006502232979983091</v>
+        <v>6.582539208466187e-05</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0023039560765028</v>
+        <v>0.0001037644542520866</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.0008139728452078998</v>
+        <v>0.0001915564062073827</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.002030094619840384</v>
+        <v>0.0001423837529728189</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.005568059161305428</v>
+        <v>4.259170236764476e-05</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.002995694056153297</v>
+        <v>7.497717888327315e-05</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.003525271080434322</v>
+        <v>0.0001492214214522392</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.008104958571493626</v>
+        <v>9.907320782076567e-05</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.01129006966948509</v>
+        <v>4.889783303951845e-05</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.001084221177734435</v>
+        <v>0.0001094239487429149</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.008330860175192356</v>
+        <v>4.580825043376535e-05</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.002111058449372649</v>
+        <v>0.0003501644532661885</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.001442228443920612</v>
+        <v>0.0001140184176620096</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.002751556923612952</v>
+        <v>0.0001892761356430128</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.002996735274791718</v>
+        <v>1.982333196792752e-05</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.003976883832365274</v>
+        <v>2.787281846394762e-05</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.008739149197936058</v>
+        <v>0.0002219843299826607</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.001449916278943419</v>
+        <v>5.45491129742004e-05</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.003698881715536118</v>
+        <v>0.0001736406702548265</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.00510996812954545</v>
+        <v>8.751214772928506e-05</v>
       </c>
       <c r="FC13" t="n">
-        <v>4.505846663960256e-05</v>
+        <v>0.0002405312698101625</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.0003157654136884958</v>
+        <v>0.0001185969813377596</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.0005845667328685522</v>
+        <v>1.919395072036423e-05</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.003855915972962976</v>
+        <v>0.0001269115164177492</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.00149759987834841</v>
+        <v>0.0001003931538434699</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.005817956756800413</v>
+        <v>0.0001715344260446727</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.006081150379031897</v>
+        <v>6.542187475133687e-05</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.002551032695919275</v>
+        <v>6.901176675455645e-05</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.002673624781891704</v>
+        <v>2.874253914342262e-05</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.002728484570980072</v>
+        <v>8.015885396162048e-05</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.001235962612554431</v>
+        <v>1.71800893440377e-05</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.006008415948599577</v>
+        <v>3.40883489116095e-05</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.0009569344692863524</v>
+        <v>4.496003020904027e-05</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.001696255290880799</v>
+        <v>0.000184750446351245</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.004315004218369722</v>
+        <v>4.34481116826646e-05</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.001716359285637736</v>
+        <v>6.864908300485695e-06</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.004895329009741545</v>
+        <v>0.0001602564589120448</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.002360599348321557</v>
+        <v>0.0007266367319971323</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.003014457179233432</v>
+        <v>0.0001876603928394616</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.002699394710361958</v>
+        <v>0.0001022360156639479</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.001792837749235332</v>
+        <v>0.0002137887058779597</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.006487359292805195</v>
+        <v>1.783423067536205e-05</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.002097499324008822</v>
+        <v>0.000176468282006681</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.001195307355374098</v>
+        <v>0.0001986189890885726</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.001564744161441922</v>
+        <v>2.638451042002998e-05</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.003806212451308966</v>
+        <v>0.0002201545430580154</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.0005754432640969753</v>
+        <v>0.000119418793474324</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.0003016511327587068</v>
+        <v>0.0001607225422048941</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.0003802007995545864</v>
+        <v>0.0004817972076125443</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.0003183171502314508</v>
+        <v>0.0002362199884373695</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.005885962396860123</v>
+        <v>0.0001478980702813715</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.003709147218614817</v>
+        <v>0.001940644928254187</v>
       </c>
       <c r="B14" t="n">
-        <v>0.007832229137420654</v>
+        <v>0.0007836328586563468</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008562072180211544</v>
+        <v>0.005424166098237038</v>
       </c>
       <c r="D14" t="n">
-        <v>0.007730377838015556</v>
+        <v>0.004241309594362974</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01359936594963074</v>
+        <v>0.003430936019867659</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02845134399831295</v>
+        <v>0.001347145065665245</v>
       </c>
       <c r="G14" t="n">
-        <v>0.004425204358994961</v>
+        <v>0.001512803602963686</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0345676988363266</v>
+        <v>0.0004483723314478993</v>
       </c>
       <c r="I14" t="n">
-        <v>0.005369809921830893</v>
+        <v>0.00147357489913702</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001404072856530547</v>
+        <v>0.001678086933679879</v>
       </c>
       <c r="K14" t="n">
-        <v>0.005551812238991261</v>
+        <v>0.0006897248676978052</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01160532981157303</v>
+        <v>0.004336296580731869</v>
       </c>
       <c r="M14" t="n">
-        <v>0.006096124649047852</v>
+        <v>0.004481583368033171</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01796506904065609</v>
+        <v>0.0008620326989330351</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02986393123865128</v>
+        <v>0.001032154308632016</v>
       </c>
       <c r="P14" t="n">
-        <v>0.004008766729384661</v>
+        <v>0.000973094895016402</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.03876607120037079</v>
+        <v>7.907615508884192e-05</v>
       </c>
       <c r="R14" t="n">
-        <v>0.00245174765586853</v>
+        <v>0.00223807105794549</v>
       </c>
       <c r="S14" t="n">
-        <v>0.009658028371632099</v>
+        <v>0.0005754177691414952</v>
       </c>
       <c r="T14" t="n">
-        <v>0.002494918880984187</v>
+        <v>0.0009735169587656856</v>
       </c>
       <c r="U14" t="n">
-        <v>0.001342179952189326</v>
+        <v>0.0009001068538054824</v>
       </c>
       <c r="V14" t="n">
-        <v>0.001858222298324108</v>
+        <v>0.0008529489277862012</v>
       </c>
       <c r="W14" t="n">
-        <v>0.00272562331520021</v>
+        <v>0.0005921403062529862</v>
       </c>
       <c r="X14" t="n">
-        <v>0.008220378309488297</v>
+        <v>0.0003384758601896465</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.001460561994463205</v>
+        <v>0.0006150910048745573</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.01032954081892967</v>
+        <v>0.000615636061411351</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0006889881333336234</v>
+        <v>0.0001165692301583476</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.003286861348897219</v>
+        <v>0.001733011798933148</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.001393657643347979</v>
+        <v>0.0004186437872704118</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0007767660426907241</v>
+        <v>0.0001725502515910193</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.007114122156053782</v>
+        <v>0.00169046560768038</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.01462190598249435</v>
+        <v>0.001229697256349027</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.003117543878033757</v>
+        <v>5.100642738398165e-05</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.01101506967097521</v>
+        <v>0.0001107537827920169</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.004997073207050562</v>
+        <v>0.0007400678587146103</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.001048092963173985</v>
+        <v>0.0008735440205782652</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.001789811532944441</v>
+        <v>0.0005085358279757202</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.002350572263821959</v>
+        <v>3.867701161652803e-05</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.007914350368082523</v>
+        <v>2.867559669539332e-05</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.001199253019876778</v>
+        <v>0.0002893874188885093</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.01711365766823292</v>
+        <v>0.001079939771443605</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.0006767814629711211</v>
+        <v>0.000205748830921948</v>
       </c>
       <c r="AQ14" t="n">
-        <v>7.313938112929463e-06</v>
+        <v>0.0004582849214784801</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.002793849678710103</v>
+        <v>0.0001277374685741961</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.001725370762869716</v>
+        <v>0.0003384562442079186</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.005009320564568043</v>
+        <v>0.001672412035986781</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.009308351203799248</v>
+        <v>0.00197251420468092</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.00467600766569376</v>
+        <v>0.002881304826587439</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.0002090911148115993</v>
+        <v>0.003587491344660521</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.004968264605849981</v>
+        <v>0.0007278397097252309</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.01991700381040573</v>
+        <v>0.0008510386687703431</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.001872193184681237</v>
+        <v>0.001072114333510399</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.01187743153423071</v>
+        <v>0.001039177644997835</v>
       </c>
       <c r="BB14" t="n">
-        <v>8.389732101932168e-06</v>
+        <v>0.0005490191979333758</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.005405134055763483</v>
+        <v>0.001466139918193221</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.003399609122425318</v>
+        <v>0.002806621138006449</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.004243992269039154</v>
+        <v>0.0008888319716788828</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.008612291887402534</v>
+        <v>0.001535905874334276</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.01006581727415323</v>
+        <v>0.001382606336846948</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.001633366220630705</v>
+        <v>0.002156517235562205</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.008868947625160217</v>
+        <v>0.001204599859192967</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.008188600651919842</v>
+        <v>0.0003912892425432801</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.0008260984322987497</v>
+        <v>0.001732073491439223</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.0004296077531762421</v>
+        <v>0.0001554047630634159</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.003356072120368481</v>
+        <v>0.0005930118495598435</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.003731162752956152</v>
+        <v>0.000785736832767725</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.002804065123200417</v>
+        <v>5.825109838042408e-05</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.001112964935600758</v>
+        <v>0.0006493370165117085</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.004873734433203936</v>
+        <v>0.0002448419691063464</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.007030612789094448</v>
+        <v>0.0001440444320905954</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.001366363605484366</v>
+        <v>0.0007715169922448695</v>
       </c>
       <c r="BT14" t="n">
-        <v>5.98034675931558e-05</v>
+        <v>0.0003543170751072466</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.00372272590175271</v>
+        <v>0.0004338709404692054</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.001986254937946796</v>
+        <v>0.001227831817232072</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.001432789955288172</v>
+        <v>0.002005850663408637</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.0009884946048259735</v>
+        <v>0.002415986265987158</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.004634022247046232</v>
+        <v>0.001138628693297505</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.01597299985587597</v>
+        <v>0.0003573236172087491</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.002761272946372628</v>
+        <v>0.0003665828844532371</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.01192238088697195</v>
+        <v>0.0007240429986268282</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.0006935088895261288</v>
+        <v>0.0008754605078138411</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.0009950915118679404</v>
+        <v>0.0006133487331680954</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.002000160282477736</v>
+        <v>4.437251482158899e-05</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.003094385843724012</v>
+        <v>0.001316740992479026</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.003323424374684691</v>
+        <v>0.0007441614870913327</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.004338542465120554</v>
+        <v>0.000746953533962369</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.006056307349354029</v>
+        <v>0.0002855350612662733</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.0004977178759872913</v>
+        <v>0.0004948971327394247</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.006011700257658958</v>
+        <v>0.0004280165303498507</v>
       </c>
       <c r="CL14" t="n">
-        <v>7.735582767054439e-05</v>
+        <v>0.0001784911000868306</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.005880558397620916</v>
+        <v>0.001911562983877957</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.01100421883165836</v>
+        <v>0.001580640207976103</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.006287083961069584</v>
+        <v>2.92710610665381e-05</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.009726259857416153</v>
+        <v>0.0008086480665951967</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.0003338541137054563</v>
+        <v>0.0003918526053894311</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.001852628076449037</v>
+        <v>0.0005399271030910313</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.004058977589011192</v>
+        <v>0.00044848961988464</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.005178778432309628</v>
+        <v>0.001906434074044228</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.002611530013382435</v>
+        <v>0.0004118373326491565</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.002236501313745975</v>
+        <v>0.0004684184968937188</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.002278407569974661</v>
+        <v>0.0004318640858400613</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.003644092241302133</v>
+        <v>0.0009292477043345571</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.003097111126407981</v>
+        <v>0.0008315108134411275</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.003887511091306806</v>
+        <v>0.0004088668792974204</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.005809321999549866</v>
+        <v>0.0001586735888849944</v>
       </c>
       <c r="DB14" t="n">
-        <v>1.760039594955742e-06</v>
+        <v>0.0004803854390047491</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.007151762023568153</v>
+        <v>0.0003265505947638303</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.0002637940924614668</v>
+        <v>0.0001124227856053039</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.01760639995336533</v>
+        <v>0.0002241733891423792</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.008580216206610203</v>
+        <v>0.001710825366899371</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.006642462685704231</v>
+        <v>0.002068309113383293</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.00372935738414526</v>
+        <v>0.0004453820001799613</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.000797217944636941</v>
+        <v>0.0002310526906512678</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.00795049499720335</v>
+        <v>0.0001297011040151119</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.001590667758136988</v>
+        <v>0.001772144809365273</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.002240291563794017</v>
+        <v>0.0005076058441773057</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.004543538670986891</v>
+        <v>0.0005948789184913039</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.003815916599705815</v>
+        <v>7.137792999856174e-05</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.003231011563912034</v>
+        <v>0.001346036093309522</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.00268832384608686</v>
+        <v>0.0009215110912919044</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.003669964615255594</v>
+        <v>0.0001947935670614243</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.006217442452907562</v>
+        <v>0.001768043846823275</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.004489243030548096</v>
+        <v>0.0008334890007972717</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.004720461089164019</v>
+        <v>0.0007154096383601427</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.0007026322418823838</v>
+        <v>3.906944766640663e-05</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.003218081314116716</v>
+        <v>0.001289713196456432</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.002362596802413464</v>
+        <v>0.0003930206003133208</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.0009233560995198786</v>
+        <v>0.001803657622076571</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.005129685625433922</v>
+        <v>0.0004864934307988733</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.0003942713374271989</v>
+        <v>0.0003506617795210332</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.0006831746431998909</v>
+        <v>0.0009895735420286655</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.001676698215305805</v>
+        <v>0.000986642437055707</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.003364486154168844</v>
+        <v>1.693246667855419e-05</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.0002756287576630712</v>
+        <v>0.0004159039235673845</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.00100422278046608</v>
+        <v>0.0001954190811375156</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.006971246097236872</v>
+        <v>7.124655530788004e-05</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.009880464524030685</v>
+        <v>0.0005429349257610738</v>
       </c>
       <c r="EH14" t="n">
-        <v>9.689164289738983e-05</v>
+        <v>0.001388640492223203</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.003716089762747288</v>
+        <v>0.001580947078764439</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.001259106211364269</v>
+        <v>1.106459967559204e-05</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.005411095917224884</v>
+        <v>2.320178646186832e-05</v>
       </c>
       <c r="EL14" t="n">
-        <v>8.476518269162625e-05</v>
+        <v>0.0005255861324258149</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.005837674718350172</v>
+        <v>0.0001049562415573746</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.001535952906124294</v>
+        <v>0.0006203787634149194</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.001652927021495998</v>
+        <v>5.860271630808711e-05</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.001603651093319058</v>
+        <v>0.001268016174435616</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.004173337947577238</v>
+        <v>0.0006558119785040617</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.002028781687840819</v>
+        <v>0.0009180654305964708</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.005226703360676765</v>
+        <v>0.0006899108993820846</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.003022484946995974</v>
+        <v>0.000164582539582625</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.001231769099831581</v>
+        <v>0.0006550580728799105</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.006939699873328209</v>
+        <v>6.432411464629695e-05</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.003164569614455104</v>
+        <v>0.000890774535946548</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.001655382104218006</v>
+        <v>0.000478508765809238</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.002676507690921426</v>
+        <v>0.0005411448073573411</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.003403082955628633</v>
+        <v>0.001244725310243666</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.004650183487683535</v>
+        <v>0.0007857878226786852</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.005804627668112516</v>
+        <v>0.0005293726571835577</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.006576576270163059</v>
+        <v>8.86127381818369e-05</v>
       </c>
       <c r="FD14" t="n">
-        <v>0.0003792663337662816</v>
+        <v>0.0004357514262665063</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.007073232438415289</v>
+        <v>0.0003281071549281478</v>
       </c>
       <c r="FF14" t="n">
-        <v>8.249357051681727e-05</v>
+        <v>0.0003445648471824825</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.001236147712916136</v>
+        <v>0.0001804527564672753</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.0002135686809197068</v>
+        <v>0.0009862004080787301</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.002977565862238407</v>
+        <v>1.843195059336722e-05</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.004059064667671919</v>
+        <v>0.0007936906768009067</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.001646635122597218</v>
+        <v>0.0003930855600629002</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.0002118542906828225</v>
+        <v>0.0006974975694902241</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.001272569759748876</v>
+        <v>0.0004099537909496576</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.00324344914406538</v>
+        <v>0.0007143021794036031</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.0004545852716546506</v>
+        <v>0.0004432220885064453</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.004953328520059586</v>
+        <v>0.0009679358918219805</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.00272555323317647</v>
+        <v>0.0006970454705879092</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.002079922938719392</v>
+        <v>0.00137997476849705</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.0009742783149704337</v>
+        <v>6.945949280634522e-05</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.002273076446726918</v>
+        <v>0.0002660626778379083</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.01029213797301054</v>
+        <v>0.0006493350374512374</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.005766076967120171</v>
+        <v>0.0001854190195444971</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.005315473303198814</v>
+        <v>0.000627756176982075</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.000923645799048245</v>
+        <v>0.0003389260964468122</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.001770794624462724</v>
+        <v>0.0002946047170553356</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.001065796008333564</v>
+        <v>0.0009633840527385473</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.001227871980518103</v>
+        <v>0.0002214991836808622</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.001408718060702085</v>
+        <v>8.677876758156344e-05</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.003125987248495221</v>
+        <v>0.001028981292620301</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.002014033030718565</v>
+        <v>0.001545144594274461</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.0003294681664556265</v>
+        <v>0.0006669668946415186</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.0001690687495283782</v>
+        <v>0.0001164838613476604</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.002478533890098333</v>
+        <v>4.945537511957809e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.001689949654974043</v>
+        <v>1.144135239883326e-06</v>
       </c>
       <c r="B15" t="n">
-        <v>0.001325268880464137</v>
+        <v>0.0004247194156050682</v>
       </c>
       <c r="C15" t="n">
-        <v>0.006736135110259056</v>
+        <v>7.887799438321963e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01337921340018511</v>
+        <v>0.0001762864267220721</v>
       </c>
       <c r="E15" t="n">
-        <v>0.009800626896321774</v>
+        <v>0.0002668102097231895</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00136296427808702</v>
+        <v>0.0002014251949731261</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001125960843637586</v>
+        <v>7.921770156826824e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02097053453326225</v>
+        <v>0.0001100318477256224</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0008662365144118667</v>
+        <v>3.230910078855231e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0003174958401359618</v>
+        <v>4.903999069938436e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002388092689216137</v>
+        <v>0.0003251529997214675</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006473828572779894</v>
+        <v>1.79852268047398e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.009874345734715462</v>
+        <v>0.0001134737831307575</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01335799042135477</v>
+        <v>0.0002079705009236932</v>
       </c>
       <c r="O15" t="n">
-        <v>0.003741569118574262</v>
+        <v>0.000195918430108577</v>
       </c>
       <c r="P15" t="n">
-        <v>0.004337522201240063</v>
+        <v>8.533387881470844e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02588443830609322</v>
+        <v>2.492478779458907e-05</v>
       </c>
       <c r="R15" t="n">
-        <v>0.001561124459840357</v>
+        <v>3.629837738117203e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>0.001016946043819189</v>
+        <v>5.730226348532597e-06</v>
       </c>
       <c r="T15" t="n">
-        <v>0.001855020644143224</v>
+        <v>7.144099799916148e-05</v>
       </c>
       <c r="U15" t="n">
-        <v>0.001173400320112705</v>
+        <v>1.009912466543028e-05</v>
       </c>
       <c r="V15" t="n">
-        <v>0.001117592793889344</v>
+        <v>5.840662197442725e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01011941954493523</v>
+        <v>4.903901208308525e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>0.002690777881070971</v>
+        <v>7.049219129839912e-05</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0001386901276418939</v>
+        <v>2.532710823288653e-05</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0055225919932127</v>
+        <v>5.281628182274289e-05</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0006136558949947357</v>
+        <v>3.047526479349472e-05</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.004030328709632158</v>
+        <v>2.558073174441233e-05</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.001188481459394097</v>
+        <v>6.261312228161842e-05</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.003392369020730257</v>
+        <v>6.156281415314879e-06</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.006539264228194952</v>
+        <v>3.432932135183364e-05</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.001453377306461334</v>
+        <v>1.523613173048943e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0004018818726763129</v>
+        <v>3.100556932622567e-05</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.005460671149194241</v>
+        <v>4.043735680170357e-05</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.001556529081426561</v>
+        <v>4.865081427851692e-05</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.001205988810397685</v>
+        <v>6.238335117814131e-06</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.002929960610345006</v>
+        <v>2.912545096478425e-05</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.001573680201545358</v>
+        <v>9.378769755130634e-05</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.001866862294264138</v>
+        <v>5.720271474274341e-07</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.619535032659769e-05</v>
+        <v>1.580961907166056e-05</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.004400959238409996</v>
+        <v>1.023613913275767e-05</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.001896639470942318</v>
+        <v>7.488536357413977e-05</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.002314969198778272</v>
+        <v>5.346679245121777e-06</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.0006005280301906168</v>
+        <v>3.950765676563606e-05</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.0004759912262670696</v>
+        <v>4.432847345015034e-05</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.003003115067258477</v>
+        <v>3.860055221593939e-05</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.0003917115973308682</v>
+        <v>0.0002843094698619097</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.001969968201592565</v>
+        <v>5.668456651619636e-05</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.005468631163239479</v>
+        <v>3.238945282646455e-05</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.00485587352886796</v>
+        <v>0.0001121462701121345</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.001961892237886786</v>
+        <v>0.0001403058122377843</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.005857399664819241</v>
+        <v>1.395013259752886e-05</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.008835960179567337</v>
+        <v>6.867064803373069e-05</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.001004744553938508</v>
+        <v>1.621017145225778e-05</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.001870946725830436</v>
+        <v>1.03069451142801e-05</v>
       </c>
       <c r="BD15" t="n">
-        <v>3.340555122122169e-05</v>
+        <v>6.203295197337866e-05</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.0004302072338759899</v>
+        <v>6.039233994670212e-05</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.005868806038051844</v>
+        <v>6.840794958407059e-05</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.002892437623813748</v>
+        <v>0.0001745302579365671</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.002460873685777187</v>
+        <v>3.390792699065059e-05</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.004050104878842831</v>
+        <v>7.056917092995718e-05</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.004842531867325306</v>
+        <v>5.555052484851331e-05</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.001053664600476623</v>
+        <v>2.519765257602558e-05</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.001681643771007657</v>
+        <v>1.958340180863161e-05</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.0002868264564312994</v>
+        <v>7.574875780846924e-05</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.00240195170044899</v>
+        <v>4.345184788689949e-05</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.0009540332830511034</v>
+        <v>7.98931341705611e-06</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.002800711430609226</v>
+        <v>1.117483225243632e-05</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.0003062233154196292</v>
+        <v>4.080290818819776e-05</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.003392519894987345</v>
+        <v>2.644135565788019e-05</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.003123916685581207</v>
+        <v>2.551536999817472e-05</v>
       </c>
       <c r="BT15" t="n">
-        <v>9.027840860653669e-06</v>
+        <v>2.978403608722147e-05</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.007877368479967117</v>
+        <v>3.429173011681996e-05</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.001202187733724713</v>
+        <v>0.0001781567989382893</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.002225719625130296</v>
+        <v>9.935660636983812e-05</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.001342699397355318</v>
+        <v>4.173601701040752e-05</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.002686690771952271</v>
+        <v>7.465222734026611e-05</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.001728254021145403</v>
+        <v>1.337911271548364e-05</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.005184795707464218</v>
+        <v>1.794016679923516e-05</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.007337408140301704</v>
+        <v>2.296260026923846e-05</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.0004476455505937338</v>
+        <v>2.960658093797974e-05</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.002644250402227044</v>
+        <v>4.632517629943322e-06</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.0008392644813284278</v>
+        <v>6.798426329623908e-05</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.001357147702947259</v>
+        <v>2.290404336235952e-05</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.002019513631239533</v>
+        <v>3.283534533693455e-05</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.002680196659639478</v>
+        <v>1.318295107921585e-05</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.00113014702219516</v>
+        <v>4.231419006828219e-05</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.001088616903871298</v>
+        <v>1.810072353691794e-05</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.004357606638222933</v>
+        <v>1.234005048900144e-05</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.0004184918070677668</v>
+        <v>1.548458749311976e-05</v>
       </c>
       <c r="CM15" t="n">
-        <v>6.493262480944395e-05</v>
+        <v>6.054488767404109e-05</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.002836089581251144</v>
+        <v>3.751268195628654e-06</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.002310146577656269</v>
+        <v>7.382400326605421e-06</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.002141709672287107</v>
+        <v>5.312388566380832e-06</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.004389554727822542</v>
+        <v>1.156754115072545e-05</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.006555414758622646</v>
+        <v>1.97346817003563e-05</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.001275114482268691</v>
+        <v>7.367920625256374e-05</v>
       </c>
       <c r="CT15" t="n">
-        <v>8.847999561112374e-05</v>
+        <v>6.404734449461102e-05</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.0004127565771341324</v>
+        <v>3.776762241614051e-06</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.001921401126310229</v>
+        <v>4.697745680459775e-06</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.001217258861288428</v>
+        <v>5.333154331310652e-05</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.001665206160396338</v>
+        <v>2.93856155622052e-05</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.002226057229563594</v>
+        <v>4.764420737046748e-05</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.002800423186272383</v>
+        <v>7.632856068084948e-06</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.001339241396635771</v>
+        <v>5.718956163036637e-05</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.0006021849694661796</v>
+        <v>1.258692827832419e-05</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.005044956225901842</v>
+        <v>2.102286089211702e-05</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.0006178596522659063</v>
+        <v>1.320259798376355e-06</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.004811680875718594</v>
+        <v>3.214063326595351e-05</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.00453958148136735</v>
+        <v>9.27834480535239e-05</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.0007338711293414235</v>
+        <v>1.101228735933546e-05</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.001213639741763473</v>
+        <v>0.0001012304710457101</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.001751917880028486</v>
+        <v>2.892127122322563e-05</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.002665511099621654</v>
+        <v>6.17704245087225e-06</v>
       </c>
       <c r="DK15" t="n">
-        <v>9.766266884980723e-05</v>
+        <v>6.045502959750593e-05</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.002420293167233467</v>
+        <v>4.192654159851372e-05</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.001375395921058953</v>
+        <v>4.302990782889538e-05</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.001346314558759332</v>
+        <v>1.302293094340712e-05</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.001515844254754484</v>
+        <v>2.453538218105678e-05</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.001374602899886668</v>
+        <v>8.925667316361796e-06</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.0009846364846453071</v>
+        <v>4.688721674028784e-05</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.004673713352531195</v>
+        <v>1.532076930743642e-05</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.0009659595089033246</v>
+        <v>6.038781066308729e-05</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.004238267429172993</v>
+        <v>2.541182402637787e-05</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.0002152096421923488</v>
+        <v>2.316040263394825e-05</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.000709313724655658</v>
+        <v>1.588164559507277e-05</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.001343249343335629</v>
+        <v>3.489976734272204e-07</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.00450524827465415</v>
+        <v>6.429270797525533e-06</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.0008795841131359339</v>
+        <v>4.353262920631096e-05</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.001642865594476461</v>
+        <v>1.035277819028124e-06</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.0004506763652898371</v>
+        <v>2.992536064994056e-05</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.003010821295902133</v>
+        <v>2.609467628644779e-05</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.001342381932772696</v>
+        <v>4.011549208371434e-07</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.001858171774074435</v>
+        <v>4.052298027090728e-05</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.0003995291772298515</v>
+        <v>1.364006857329514e-05</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.0007128149154596031</v>
+        <v>3.874164758599363e-05</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.001201062579639256</v>
+        <v>4.769870429299772e-05</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.001911462633870542</v>
+        <v>3.558797834557481e-05</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.004028370138257742</v>
+        <v>2.14052852243185e-05</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.00258204061537981</v>
+        <v>3.240238584112376e-05</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.002113153459504247</v>
+        <v>2.380908335908316e-05</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.0009526269277557731</v>
+        <v>2.731058157223742e-05</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.006502212025225163</v>
+        <v>6.386806035152404e-06</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.002197502413764596</v>
+        <v>4.326419457356678e-06</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.002340316772460938</v>
+        <v>1.584657002240419e-05</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.002336830832064152</v>
+        <v>1.795933167159092e-05</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.00309855374507606</v>
+        <v>5.692361446563154e-05</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.0002739696064963937</v>
+        <v>4.621267362381332e-05</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.004866908304393291</v>
+        <v>2.351759030716494e-05</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.001754774362780154</v>
+        <v>5.046898877480999e-05</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.001105409115552902</v>
+        <v>2.057822894130368e-05</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.0001024226075969636</v>
+        <v>5.251662514638156e-05</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.001120875589549541</v>
+        <v>8.05621766630793e-06</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.001694378675892949</v>
+        <v>1.222914397658315e-05</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.001220182864926755</v>
+        <v>5.13975573994685e-05</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.001702097710222006</v>
+        <v>1.757462450768799e-05</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.001931326230987906</v>
+        <v>4.595228892867453e-05</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.003818525234237313</v>
+        <v>5.230128863331629e-07</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.001503440318629146</v>
+        <v>4.850561526836827e-05</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.001260484335944057</v>
+        <v>2.605691952339839e-05</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.004935530479997396</v>
+        <v>2.199413574999198e-05</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.0005536309326998889</v>
+        <v>2.035747093032114e-05</v>
       </c>
       <c r="FG15" t="n">
-        <v>6.598338950425386e-05</v>
+        <v>4.808925950783305e-06</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.0025220294483006</v>
+        <v>3.958619345212355e-05</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.001702975248917937</v>
+        <v>3.748705057660118e-05</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.00218520313501358</v>
+        <v>5.647804937325418e-05</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.003631934523582458</v>
+        <v>1.697178959148005e-05</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.003517762990668416</v>
+        <v>3.938442750950344e-05</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.00245540146715939</v>
+        <v>1.942671406141017e-05</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.002761410782113671</v>
+        <v>3.218322672182694e-05</v>
       </c>
       <c r="FO15" t="n">
-        <v>2.271163612022065e-05</v>
+        <v>3.869440843118355e-05</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.004461591597646475</v>
+        <v>2.173497159674298e-05</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.004214978311210871</v>
+        <v>4.738073403132148e-05</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.004565871320664883</v>
+        <v>2.161208794859704e-05</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.001023058779537678</v>
+        <v>8.37217885418795e-05</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.003232356160879135</v>
+        <v>6.472474342444912e-05</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.0003848239430226386</v>
+        <v>9.408029654878192e-06</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.002312509110197425</v>
+        <v>2.89709132630378e-05</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.004931705072522163</v>
+        <v>2.791450606309809e-05</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.003211038187146187</v>
+        <v>1.119237640523352e-05</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.003321029711514711</v>
+        <v>5.820060323458165e-05</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.002155265538021922</v>
+        <v>7.917844868643442e-07</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.001794844167307019</v>
+        <v>2.4302191377501e-05</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.003642625641077757</v>
+        <v>4.577270374284126e-05</v>
       </c>
       <c r="GC15" t="n">
-        <v>2.957806282211095e-05</v>
+        <v>4.58371068816632e-05</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.002778340596705675</v>
+        <v>5.692778358934447e-05</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.005099816247820854</v>
+        <v>0.0001493427553214133</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.001226175692863762</v>
+        <v>1.021136267809197e-05</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.001498527242802083</v>
+        <v>2.052039235422853e-05</v>
       </c>
     </row>
     <row r="16">
